--- a/M3/Fwd M3 2021 modificare/ST-080-0002-Mod-0004-Anexa 2 (M3_2021).xlsx
+++ b/M3/Fwd M3 2021 modificare/ST-080-0002-Mod-0004-Anexa 2 (M3_2021).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\bns\M3\Fwd M3 2021 modificare\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F00DBDB-25BF-49BE-B672-69113293ED23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="1035" windowWidth="19815" windowHeight="8670" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_0_Tab.1.8(_)_0" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="201">
   <si>
     <t>&amp;nbsp;</t>
   </si>
@@ -640,12 +646,15 @@
   <si>
     <t>Timpul plătit nelucrat aferent salariaților (inclusiv al cumularzilor externi)</t>
   </si>
+  <si>
+    <t>Nu mai tab11 - 11.8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1012,16 +1021,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1049,6 +1049,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1067,15 +1098,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1085,40 +1107,50 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1135,39 +1167,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Body" xfId="2"/>
-    <cellStyle name="Header" xfId="1"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Body" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Header" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1175,14 +1184,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1220,9 +1232,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1255,9 +1267,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1290,9 +1319,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1465,14 +1511,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y141"/>
   <sheetViews>
     <sheetView topLeftCell="J34" workbookViewId="0">
       <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -1493,147 +1539,147 @@
     <col min="18" max="18" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:18" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="6" customFormat="1"/>
+    <row r="2" spans="1:18" s="6" customFormat="1" ht="18.75">
       <c r="A2" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="48"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+    <row r="3" spans="1:18">
+      <c r="A3" s="52"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="43"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="51"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="54"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="46"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="54"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="49"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="51" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
       <c r="G6" s="39"/>
-      <c r="H6" s="67" t="s">
+      <c r="H6" s="51" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="38"/>
       <c r="J6" s="39"/>
-      <c r="K6" s="67" t="s">
+      <c r="K6" s="51" t="s">
         <v>5</v>
       </c>
       <c r="L6" s="38"/>
       <c r="M6" s="39"/>
-      <c r="N6" s="67" t="s">
+      <c r="N6" s="51" t="s">
         <v>6</v>
       </c>
       <c r="O6" s="38"/>
       <c r="P6" s="38"/>
       <c r="Q6" s="39"/>
-      <c r="R6" s="67" t="s">
+      <c r="R6" s="51" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="67" t="s">
+    <row r="7" spans="1:18">
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="51" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="39"/>
-      <c r="H7" s="67" t="s">
+      <c r="H7" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="67" t="s">
+      <c r="I7" s="51" t="s">
         <v>9</v>
       </c>
       <c r="J7" s="39"/>
-      <c r="K7" s="67" t="s">
+      <c r="K7" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="67" t="s">
+      <c r="L7" s="51" t="s">
         <v>9</v>
       </c>
       <c r="M7" s="39"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="40"/>
-    </row>
-    <row r="8" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="50"/>
+    </row>
+    <row r="8" spans="1:18" ht="38.25">
+      <c r="A8" s="51"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1643,14 +1689,14 @@
       <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="67"/>
+      <c r="H8" s="51"/>
       <c r="I8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="67"/>
+      <c r="K8" s="51"/>
       <c r="L8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1669,23 +1715,23 @@
       <c r="Q8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="41"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R8" s="40"/>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="51" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
       <c r="F9" s="38"/>
       <c r="G9" s="39"/>
-      <c r="H9" s="67" t="s">
+      <c r="H9" s="51" t="s">
         <v>19</v>
       </c>
       <c r="I9" s="38"/>
@@ -1693,7 +1739,7 @@
       <c r="K9" s="38"/>
       <c r="L9" s="38"/>
       <c r="M9" s="39"/>
-      <c r="N9" s="67" t="s">
+      <c r="N9" s="51" t="s">
         <v>18</v>
       </c>
       <c r="O9" s="38"/>
@@ -1703,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -1759,293 +1805,293 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="68"/>
-      <c r="B20" s="47" t="s">
+    <row r="20" spans="1:25">
+      <c r="A20" s="52"/>
+      <c r="B20" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="47" t="s">
+      <c r="F20" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="47" t="s">
+      <c r="G20" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="47" t="s">
+      <c r="H20" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="47" t="s">
+      <c r="I20" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="47" t="s">
+      <c r="J20" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="K20" s="47" t="s">
+      <c r="K20" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="L20" s="47" t="s">
+      <c r="L20" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="M20" s="47" t="s">
+      <c r="M20" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="N20" s="47" t="s">
+      <c r="N20" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="O20" s="47" t="s">
+      <c r="O20" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="P20" s="47" t="s">
+      <c r="P20" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="Q20" s="47" t="s">
+      <c r="Q20" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="R20" s="47" t="s">
+      <c r="R20" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="S20" s="47" t="s">
+      <c r="S20" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="T20" s="47" t="s">
+      <c r="T20" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="U20" s="47" t="s">
+      <c r="U20" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="V20" s="47" t="s">
+      <c r="V20" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="W20" s="47" t="s">
+      <c r="W20" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="X20" s="47" t="s">
+      <c r="X20" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="Y20" s="48" t="s">
+      <c r="Y20" s="43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="71" t="s">
+    <row r="21" spans="1:25">
+      <c r="A21" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="50" t="s">
+      <c r="G21" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="50" t="s">
+      <c r="H21" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="50" t="s">
+      <c r="I21" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="J21" s="50" t="s">
+      <c r="J21" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="50" t="s">
+      <c r="K21" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="L21" s="50" t="s">
+      <c r="L21" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="M21" s="50" t="s">
+      <c r="M21" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="N21" s="50" t="s">
+      <c r="N21" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="50" t="s">
+      <c r="O21" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="P21" s="50" t="s">
+      <c r="P21" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="Q21" s="50" t="s">
+      <c r="Q21" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="R21" s="50" t="s">
+      <c r="R21" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="S21" s="50" t="s">
+      <c r="S21" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="T21" s="50" t="s">
+      <c r="T21" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="U21" s="50" t="s">
+      <c r="U21" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V21" s="50" t="s">
+      <c r="V21" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="W21" s="50" t="s">
+      <c r="W21" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="X21" s="50" t="s">
+      <c r="X21" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="Y21" s="51" t="s">
+      <c r="Y21" s="46" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="69"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="54"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="72" t="s">
+    <row r="22" spans="1:25">
+      <c r="A22" s="54"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="49"/>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="67" t="s">
+      <c r="D23" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="67" t="s">
+      <c r="E23" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="67" t="s">
+      <c r="F23" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="67" t="s">
+      <c r="G23" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="67" t="s">
+      <c r="H23" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="67" t="s">
+      <c r="I23" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="67" t="s">
+      <c r="J23" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="K23" s="67" t="s">
+      <c r="K23" s="51" t="s">
         <v>51</v>
       </c>
       <c r="L23" s="38"/>
       <c r="M23" s="38"/>
       <c r="N23" s="39"/>
-      <c r="O23" s="67" t="s">
+      <c r="O23" s="51" t="s">
         <v>4</v>
       </c>
       <c r="P23" s="38"/>
       <c r="Q23" s="39"/>
-      <c r="R23" s="67" t="s">
+      <c r="R23" s="51" t="s">
         <v>5</v>
       </c>
       <c r="S23" s="38"/>
       <c r="T23" s="39"/>
-      <c r="U23" s="67" t="s">
+      <c r="U23" s="51" t="s">
         <v>52</v>
       </c>
       <c r="V23" s="38"/>
       <c r="W23" s="38"/>
       <c r="X23" s="39"/>
-      <c r="Y23" s="67" t="s">
+      <c r="Y23" s="51" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="67" t="s">
+    <row r="24" spans="1:25">
+      <c r="A24" s="58"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="L24" s="67" t="s">
+      <c r="L24" s="51" t="s">
         <v>9</v>
       </c>
       <c r="M24" s="38"/>
       <c r="N24" s="39"/>
-      <c r="O24" s="67" t="s">
+      <c r="O24" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="P24" s="67" t="s">
+      <c r="P24" s="51" t="s">
         <v>9</v>
       </c>
       <c r="Q24" s="39"/>
-      <c r="R24" s="67" t="s">
+      <c r="R24" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="S24" s="67" t="s">
+      <c r="S24" s="51" t="s">
         <v>9</v>
       </c>
       <c r="T24" s="39"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="70"/>
-      <c r="W24" s="70"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="40"/>
-    </row>
-    <row r="25" spans="1:25" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="60"/>
+      <c r="W24" s="60"/>
+      <c r="X24" s="61"/>
+      <c r="Y24" s="50"/>
+    </row>
+    <row r="25" spans="1:25" ht="63.75">
+      <c r="A25" s="51"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
       <c r="L25" s="2" t="s">
         <v>11</v>
       </c>
@@ -2055,14 +2101,14 @@
       <c r="N25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O25" s="67"/>
+      <c r="O25" s="51"/>
       <c r="P25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R25" s="67"/>
+      <c r="R25" s="51"/>
       <c r="S25" s="2" t="s">
         <v>11</v>
       </c>
@@ -2081,16 +2127,16 @@
       <c r="X25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y25" s="41"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y25" s="40"/>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="51" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="38"/>
@@ -2102,8 +2148,8 @@
       <c r="J26" s="38"/>
       <c r="K26" s="38"/>
       <c r="L26" s="38"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67" t="s">
+      <c r="M26" s="51"/>
+      <c r="N26" s="51" t="s">
         <v>19</v>
       </c>
       <c r="O26" s="38"/>
@@ -2111,7 +2157,7 @@
       <c r="Q26" s="38"/>
       <c r="R26" s="38"/>
       <c r="S26" s="39"/>
-      <c r="T26" s="67" t="s">
+      <c r="T26" s="51" t="s">
         <v>18</v>
       </c>
       <c r="U26" s="38"/>
@@ -2119,7 +2165,7 @@
       <c r="W26" s="38"/>
       <c r="X26" s="39"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -2196,175 +2242,175 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="68"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="47"/>
-      <c r="Q36" s="47"/>
-      <c r="R36" s="48"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="71" t="s">
+    <row r="36" spans="1:18">
+      <c r="A36" s="52"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="43"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="51"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="69"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="54"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="67" t="s">
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="46"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="54"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="49"/>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="67" t="s">
+      <c r="B39" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="67" t="s">
+      <c r="C39" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="67" t="s">
+      <c r="D39" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="67" t="s">
+      <c r="E39" s="51" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="38"/>
       <c r="G39" s="38"/>
       <c r="H39" s="39"/>
-      <c r="I39" s="67" t="s">
+      <c r="I39" s="51" t="s">
         <v>67</v>
       </c>
       <c r="J39" s="39"/>
-      <c r="K39" s="67" t="s">
+      <c r="K39" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="L39" s="67" t="s">
+      <c r="L39" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="M39" s="67" t="s">
+      <c r="M39" s="51" t="s">
         <v>70</v>
       </c>
       <c r="N39" s="39"/>
-      <c r="O39" s="67" t="s">
+      <c r="O39" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="P39" s="67" t="s">
+      <c r="P39" s="51" t="s">
         <v>72</v>
       </c>
       <c r="Q39" s="39"/>
-      <c r="R39" s="67" t="s">
+      <c r="R39" s="51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="67" t="s">
+    <row r="40" spans="1:18">
+      <c r="A40" s="50"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="51" t="s">
         <v>73</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G40" s="67" t="s">
+      <c r="G40" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="H40" s="67" t="s">
+      <c r="H40" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="I40" s="67" t="s">
+      <c r="I40" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="J40" s="67" t="s">
+      <c r="J40" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="67" t="s">
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="N40" s="67" t="s">
+      <c r="N40" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="O40" s="40"/>
-      <c r="P40" s="67" t="s">
+      <c r="O40" s="50"/>
+      <c r="P40" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="Q40" s="67" t="s">
+      <c r="Q40" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="R40" s="40"/>
-    </row>
-    <row r="41" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="67"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
+      <c r="R40" s="50"/>
+    </row>
+    <row r="41" spans="1:18" ht="25.5">
+      <c r="A41" s="51"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
       <c r="F41" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="41"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="40"/>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="3" t="s">
         <v>38</v>
       </c>
@@ -2374,7 +2420,7 @@
       <c r="C42" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="67" t="s">
+      <c r="D42" s="51" t="s">
         <v>81</v>
       </c>
       <c r="E42" s="38"/>
@@ -2385,14 +2431,14 @@
       <c r="J42" s="38"/>
       <c r="K42" s="38"/>
       <c r="L42" s="39"/>
-      <c r="M42" s="67" t="s">
+      <c r="M42" s="51" t="s">
         <v>82</v>
       </c>
       <c r="N42" s="39"/>
       <c r="O42" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="P42" s="67" t="s">
+      <c r="P42" s="51" t="s">
         <v>82</v>
       </c>
       <c r="Q42" s="39"/>
@@ -2400,7 +2446,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18">
       <c r="A43" s="4" t="s">
         <v>20</v>
       </c>
@@ -2456,212 +2502,212 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" s="68"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="47"/>
-      <c r="N51" s="47"/>
-      <c r="O51" s="47"/>
-      <c r="P51" s="47"/>
-      <c r="Q51" s="47"/>
-      <c r="R51" s="47"/>
-      <c r="S51" s="47"/>
-      <c r="T51" s="47"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="48"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" s="71" t="s">
+    <row r="51" spans="1:22">
+      <c r="A51" s="52"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="42"/>
+      <c r="Q51" s="42"/>
+      <c r="R51" s="42"/>
+      <c r="S51" s="42"/>
+      <c r="T51" s="42"/>
+      <c r="U51" s="42"/>
+      <c r="V51" s="43"/>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="A52" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="50"/>
-      <c r="M52" s="50"/>
-      <c r="N52" s="50"/>
-      <c r="O52" s="50"/>
-      <c r="P52" s="50"/>
-      <c r="Q52" s="50"/>
-      <c r="R52" s="50"/>
-      <c r="S52" s="50"/>
-      <c r="T52" s="50"/>
-      <c r="U52" s="50"/>
-      <c r="V52" s="51"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A53" s="69"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="53"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="53"/>
-      <c r="O53" s="53"/>
-      <c r="P53" s="53"/>
-      <c r="Q53" s="53"/>
-      <c r="R53" s="53"/>
-      <c r="S53" s="53"/>
-      <c r="T53" s="53"/>
-      <c r="U53" s="53"/>
-      <c r="V53" s="54"/>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" s="67" t="s">
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="45"/>
+      <c r="M52" s="45"/>
+      <c r="N52" s="45"/>
+      <c r="O52" s="45"/>
+      <c r="P52" s="45"/>
+      <c r="Q52" s="45"/>
+      <c r="R52" s="45"/>
+      <c r="S52" s="45"/>
+      <c r="T52" s="45"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="46"/>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53" s="54"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="48"/>
+      <c r="P53" s="48"/>
+      <c r="Q53" s="48"/>
+      <c r="R53" s="48"/>
+      <c r="S53" s="48"/>
+      <c r="T53" s="48"/>
+      <c r="U53" s="48"/>
+      <c r="V53" s="49"/>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="67" t="s">
+      <c r="B54" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="67" t="s">
+      <c r="C54" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="D54" s="67" t="s">
+      <c r="D54" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E54" s="67" t="s">
+      <c r="E54" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="F54" s="67" t="s">
+      <c r="F54" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="G54" s="67" t="s">
+      <c r="G54" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="H54" s="67" t="s">
+      <c r="H54" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="I54" s="67" t="s">
+      <c r="I54" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="J54" s="67" t="s">
+      <c r="J54" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="K54" s="67" t="s">
+      <c r="K54" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="L54" s="67" t="s">
+      <c r="L54" s="51" t="s">
         <v>9</v>
       </c>
       <c r="M54" s="38"/>
       <c r="N54" s="38"/>
       <c r="O54" s="39"/>
-      <c r="P54" s="67" t="s">
+      <c r="P54" s="51" t="s">
         <v>67</v>
       </c>
       <c r="Q54" s="39"/>
-      <c r="R54" s="67" t="s">
+      <c r="R54" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="S54" s="67" t="s">
+      <c r="S54" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="T54" s="67" t="s">
+      <c r="T54" s="51" t="s">
         <v>70</v>
       </c>
       <c r="U54" s="39"/>
-      <c r="V54" s="67" t="s">
+      <c r="V54" s="51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="40"/>
-      <c r="L55" s="67" t="s">
+    <row r="55" spans="1:22">
+      <c r="A55" s="50"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="51" t="s">
         <v>73</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N55" s="67" t="s">
+      <c r="N55" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="O55" s="67" t="s">
+      <c r="O55" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="P55" s="67" t="s">
+      <c r="P55" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="Q55" s="67" t="s">
+      <c r="Q55" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R55" s="40"/>
-      <c r="S55" s="40"/>
-      <c r="T55" s="67" t="s">
+      <c r="R55" s="50"/>
+      <c r="S55" s="50"/>
+      <c r="T55" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="U55" s="67" t="s">
+      <c r="U55" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="V55" s="40"/>
-    </row>
-    <row r="56" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="67"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
-      <c r="K56" s="41"/>
-      <c r="L56" s="41"/>
+      <c r="V55" s="50"/>
+    </row>
+    <row r="56" spans="1:22" ht="38.25">
+      <c r="A56" s="51"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
       <c r="M56" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="N56" s="41"/>
-      <c r="O56" s="41"/>
-      <c r="P56" s="41"/>
-      <c r="Q56" s="41"/>
-      <c r="R56" s="41"/>
-      <c r="S56" s="41"/>
-      <c r="T56" s="41"/>
-      <c r="U56" s="41"/>
-      <c r="V56" s="41"/>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N56" s="40"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="40"/>
+      <c r="R56" s="40"/>
+      <c r="S56" s="40"/>
+      <c r="T56" s="40"/>
+      <c r="U56" s="40"/>
+      <c r="V56" s="40"/>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="72" t="s">
+      <c r="B57" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="67" t="s">
+      <c r="C57" s="51" t="s">
         <v>18</v>
       </c>
       <c r="D57" s="38"/>
@@ -2670,7 +2716,7 @@
       <c r="G57" s="38"/>
       <c r="H57" s="38"/>
       <c r="I57" s="39"/>
-      <c r="J57" s="67" t="s">
+      <c r="J57" s="51" t="s">
         <v>81</v>
       </c>
       <c r="K57" s="38"/>
@@ -2681,7 +2727,7 @@
       <c r="P57" s="38"/>
       <c r="Q57" s="38"/>
       <c r="R57" s="39"/>
-      <c r="S57" s="67" t="s">
+      <c r="S57" s="51" t="s">
         <v>82</v>
       </c>
       <c r="T57" s="39"/>
@@ -2689,7 +2735,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22">
       <c r="A58" s="4" t="s">
         <v>20</v>
       </c>
@@ -2757,103 +2803,103 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="46"/>
-      <c r="B63" s="47"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="47"/>
-      <c r="J63" s="47"/>
-      <c r="K63" s="47"/>
-      <c r="L63" s="47"/>
-      <c r="M63" s="47"/>
-      <c r="N63" s="47"/>
-      <c r="O63" s="47"/>
-      <c r="P63" s="47"/>
-      <c r="Q63" s="47"/>
-      <c r="R63" s="48"/>
-    </row>
-    <row r="64" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="49" t="s">
+    <row r="63" spans="1:22" s="6" customFormat="1">
+      <c r="A63" s="41"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="42"/>
+      <c r="M63" s="42"/>
+      <c r="N63" s="42"/>
+      <c r="O63" s="42"/>
+      <c r="P63" s="42"/>
+      <c r="Q63" s="42"/>
+      <c r="R63" s="43"/>
+    </row>
+    <row r="64" spans="1:22" s="6" customFormat="1">
+      <c r="A64" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="B64" s="50" t="s">
+      <c r="B64" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="C64" s="50" t="s">
+      <c r="C64" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="D64" s="50" t="s">
+      <c r="D64" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="E64" s="50" t="s">
+      <c r="E64" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="F64" s="50" t="s">
+      <c r="F64" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="G64" s="50" t="s">
+      <c r="G64" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="H64" s="50" t="s">
+      <c r="H64" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="I64" s="50" t="s">
+      <c r="I64" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="J64" s="50" t="s">
+      <c r="J64" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="K64" s="50" t="s">
+      <c r="K64" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="L64" s="50" t="s">
+      <c r="L64" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="M64" s="50" t="s">
+      <c r="M64" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="N64" s="50" t="s">
+      <c r="N64" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="O64" s="50" t="s">
+      <c r="O64" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="P64" s="50" t="s">
+      <c r="P64" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="Q64" s="50" t="s">
+      <c r="Q64" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="R64" s="51" t="s">
+      <c r="R64" s="46" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="52"/>
-      <c r="B65" s="53"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="53"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="53"/>
-      <c r="K65" s="53"/>
-      <c r="L65" s="53"/>
-      <c r="M65" s="53"/>
-      <c r="N65" s="53"/>
-      <c r="O65" s="53"/>
-      <c r="P65" s="53"/>
-      <c r="Q65" s="53"/>
-      <c r="R65" s="54"/>
-    </row>
-    <row r="66" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" s="6" customFormat="1">
+      <c r="A65" s="47"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="48"/>
+      <c r="J65" s="48"/>
+      <c r="K65" s="48"/>
+      <c r="L65" s="48"/>
+      <c r="M65" s="48"/>
+      <c r="N65" s="48"/>
+      <c r="O65" s="48"/>
+      <c r="P65" s="48"/>
+      <c r="Q65" s="48"/>
+      <c r="R65" s="49"/>
+    </row>
+    <row r="66" spans="1:23" s="6" customFormat="1">
       <c r="A66" s="37" t="s">
         <v>63</v>
       </c>
@@ -2885,9 +2931,9 @@
       <c r="Q66" s="38"/>
       <c r="R66" s="39"/>
     </row>
-    <row r="67" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
-      <c r="B67" s="40"/>
+    <row r="67" spans="1:23" s="6" customFormat="1">
+      <c r="A67" s="50"/>
+      <c r="B67" s="50"/>
       <c r="C67" s="37" t="s">
         <v>181</v>
       </c>
@@ -2929,9 +2975,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="68" spans="1:23" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" s="6" customFormat="1" ht="25.5">
       <c r="A68" s="37"/>
-      <c r="B68" s="41"/>
+      <c r="B68" s="40"/>
       <c r="C68" s="22" t="s">
         <v>10</v>
       </c>
@@ -2939,7 +2985,7 @@
         <v>185</v>
       </c>
       <c r="E68" s="37"/>
-      <c r="F68" s="41"/>
+      <c r="F68" s="40"/>
       <c r="G68" s="22" t="s">
         <v>10</v>
       </c>
@@ -2947,7 +2993,7 @@
         <v>185</v>
       </c>
       <c r="I68" s="37"/>
-      <c r="J68" s="41"/>
+      <c r="J68" s="40"/>
       <c r="K68" s="22" t="s">
         <v>10</v>
       </c>
@@ -2955,17 +3001,17 @@
         <v>185</v>
       </c>
       <c r="M68" s="37"/>
-      <c r="N68" s="41"/>
+      <c r="N68" s="40"/>
       <c r="O68" s="22" t="s">
         <v>10</v>
       </c>
       <c r="P68" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="Q68" s="41"/>
-      <c r="R68" s="41"/>
-    </row>
-    <row r="69" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q68" s="40"/>
+      <c r="R68" s="40"/>
+    </row>
+    <row r="69" spans="1:23" s="6" customFormat="1">
       <c r="A69" s="22" t="s">
         <v>20</v>
       </c>
@@ -3021,130 +3067,130 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="46"/>
-      <c r="B73" s="47"/>
-      <c r="C73" s="47"/>
-      <c r="D73" s="47"/>
-      <c r="E73" s="47"/>
-      <c r="F73" s="47"/>
-      <c r="G73" s="47"/>
-      <c r="H73" s="47"/>
-      <c r="I73" s="47"/>
-      <c r="J73" s="47"/>
-      <c r="K73" s="47"/>
-      <c r="L73" s="47"/>
-      <c r="M73" s="47"/>
-      <c r="N73" s="47"/>
-      <c r="O73" s="47"/>
-      <c r="P73" s="47"/>
-      <c r="Q73" s="47"/>
-      <c r="R73" s="47"/>
-      <c r="S73" s="47"/>
-      <c r="T73" s="47"/>
-      <c r="U73" s="47"/>
-      <c r="V73" s="47"/>
-      <c r="W73" s="48"/>
-    </row>
-    <row r="74" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="49" t="s">
+    <row r="71" spans="1:23" s="6" customFormat="1"/>
+    <row r="72" spans="1:23" s="6" customFormat="1"/>
+    <row r="73" spans="1:23" s="6" customFormat="1">
+      <c r="A73" s="41"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="42"/>
+      <c r="O73" s="42"/>
+      <c r="P73" s="42"/>
+      <c r="Q73" s="42"/>
+      <c r="R73" s="42"/>
+      <c r="S73" s="42"/>
+      <c r="T73" s="42"/>
+      <c r="U73" s="42"/>
+      <c r="V73" s="42"/>
+      <c r="W73" s="43"/>
+    </row>
+    <row r="74" spans="1:23" s="6" customFormat="1">
+      <c r="A74" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="B74" s="50" t="s">
+      <c r="B74" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="C74" s="50" t="s">
+      <c r="C74" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="D74" s="50" t="s">
+      <c r="D74" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="E74" s="50" t="s">
+      <c r="E74" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="F74" s="50" t="s">
+      <c r="F74" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="G74" s="50" t="s">
+      <c r="G74" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="H74" s="50" t="s">
+      <c r="H74" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="I74" s="50" t="s">
+      <c r="I74" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="J74" s="50" t="s">
+      <c r="J74" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="K74" s="50" t="s">
+      <c r="K74" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="L74" s="50" t="s">
+      <c r="L74" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="M74" s="50" t="s">
+      <c r="M74" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="N74" s="50" t="s">
+      <c r="N74" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="O74" s="50" t="s">
+      <c r="O74" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="P74" s="50" t="s">
+      <c r="P74" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="Q74" s="50" t="s">
+      <c r="Q74" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="R74" s="50" t="s">
+      <c r="R74" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="S74" s="50" t="s">
+      <c r="S74" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="T74" s="50" t="s">
+      <c r="T74" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="U74" s="50" t="s">
+      <c r="U74" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="V74" s="50" t="s">
+      <c r="V74" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="W74" s="51" t="s">
+      <c r="W74" s="46" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="75" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="52"/>
-      <c r="B75" s="53"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="53"/>
-      <c r="F75" s="53"/>
-      <c r="G75" s="53"/>
-      <c r="H75" s="53"/>
-      <c r="I75" s="53"/>
-      <c r="J75" s="53"/>
-      <c r="K75" s="53"/>
-      <c r="L75" s="53"/>
-      <c r="M75" s="53"/>
-      <c r="N75" s="53"/>
-      <c r="O75" s="53"/>
-      <c r="P75" s="53"/>
-      <c r="Q75" s="53"/>
-      <c r="R75" s="53"/>
-      <c r="S75" s="53"/>
-      <c r="T75" s="53"/>
-      <c r="U75" s="53"/>
-      <c r="V75" s="53"/>
-      <c r="W75" s="54"/>
-    </row>
-    <row r="76" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" s="6" customFormat="1">
+      <c r="A75" s="47"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="48"/>
+      <c r="J75" s="48"/>
+      <c r="K75" s="48"/>
+      <c r="L75" s="48"/>
+      <c r="M75" s="48"/>
+      <c r="N75" s="48"/>
+      <c r="O75" s="48"/>
+      <c r="P75" s="48"/>
+      <c r="Q75" s="48"/>
+      <c r="R75" s="48"/>
+      <c r="S75" s="48"/>
+      <c r="T75" s="48"/>
+      <c r="U75" s="48"/>
+      <c r="V75" s="48"/>
+      <c r="W75" s="49"/>
+    </row>
+    <row r="76" spans="1:23" s="6" customFormat="1">
       <c r="A76" s="37" t="s">
         <v>63</v>
       </c>
@@ -3191,14 +3237,14 @@
       <c r="V76" s="38"/>
       <c r="W76" s="39"/>
     </row>
-    <row r="77" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="41"/>
-      <c r="B77" s="41"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="41"/>
+    <row r="77" spans="1:23" s="6" customFormat="1">
+      <c r="A77" s="40"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
       <c r="H77" s="37" t="s">
         <v>181</v>
       </c>
@@ -3240,7 +3286,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="78" spans="1:23" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" s="6" customFormat="1" ht="25.5">
       <c r="A78" s="23" t="s">
         <v>38</v>
       </c>
@@ -3269,7 +3315,7 @@
         <v>185</v>
       </c>
       <c r="J78" s="37"/>
-      <c r="K78" s="41"/>
+      <c r="K78" s="40"/>
       <c r="L78" s="22" t="s">
         <v>10</v>
       </c>
@@ -3277,7 +3323,7 @@
         <v>185</v>
       </c>
       <c r="N78" s="37"/>
-      <c r="O78" s="41"/>
+      <c r="O78" s="40"/>
       <c r="P78" s="22" t="s">
         <v>10</v>
       </c>
@@ -3285,17 +3331,17 @@
         <v>185</v>
       </c>
       <c r="R78" s="37"/>
-      <c r="S78" s="41"/>
+      <c r="S78" s="40"/>
       <c r="T78" s="22" t="s">
         <v>10</v>
       </c>
       <c r="U78" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="V78" s="41"/>
-      <c r="W78" s="41"/>
-    </row>
-    <row r="79" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V78" s="40"/>
+      <c r="W78" s="40"/>
+    </row>
+    <row r="79" spans="1:23" s="6" customFormat="1">
       <c r="A79" s="22" t="s">
         <v>20</v>
       </c>
@@ -3366,75 +3412,75 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="55" t="s">
+    <row r="81" spans="1:25" s="6" customFormat="1"/>
+    <row r="82" spans="1:25" s="6" customFormat="1"/>
+    <row r="84" spans="1:25" s="6" customFormat="1">
+      <c r="A84" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="B84" s="56"/>
-      <c r="C84" s="56"/>
-      <c r="D84" s="56"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="56"/>
-      <c r="G84" s="56"/>
-      <c r="H84" s="56"/>
-      <c r="I84" s="56"/>
-      <c r="J84" s="56"/>
-      <c r="K84" s="56"/>
-      <c r="L84" s="56"/>
-      <c r="M84" s="56"/>
-      <c r="N84" s="56"/>
-      <c r="O84" s="56"/>
-      <c r="P84" s="56"/>
-      <c r="Q84" s="56"/>
-      <c r="R84" s="56"/>
-      <c r="S84" s="56"/>
-      <c r="T84" s="56"/>
-      <c r="U84" s="56"/>
-      <c r="V84" s="56"/>
-      <c r="W84" s="56"/>
-      <c r="X84" s="56"/>
-      <c r="Y84" s="57"/>
-    </row>
-    <row r="85" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="58"/>
-      <c r="B85" s="59"/>
-      <c r="C85" s="59"/>
-      <c r="D85" s="59"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="59"/>
-      <c r="G85" s="59"/>
-      <c r="H85" s="59"/>
-      <c r="I85" s="59"/>
-      <c r="J85" s="59"/>
-      <c r="K85" s="59"/>
-      <c r="L85" s="59"/>
-      <c r="M85" s="59"/>
-      <c r="N85" s="59"/>
-      <c r="O85" s="59"/>
-      <c r="P85" s="59"/>
-      <c r="Q85" s="59"/>
-      <c r="R85" s="59"/>
-      <c r="S85" s="59"/>
-      <c r="T85" s="59"/>
-      <c r="U85" s="59"/>
-      <c r="V85" s="59"/>
-      <c r="W85" s="59"/>
-      <c r="X85" s="59"/>
-      <c r="Y85" s="60"/>
-    </row>
-    <row r="86" spans="1:25" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="61" t="s">
+      <c r="B84" s="64"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="64"/>
+      <c r="E84" s="64"/>
+      <c r="F84" s="64"/>
+      <c r="G84" s="64"/>
+      <c r="H84" s="64"/>
+      <c r="I84" s="64"/>
+      <c r="J84" s="64"/>
+      <c r="K84" s="64"/>
+      <c r="L84" s="64"/>
+      <c r="M84" s="64"/>
+      <c r="N84" s="64"/>
+      <c r="O84" s="64"/>
+      <c r="P84" s="64"/>
+      <c r="Q84" s="64"/>
+      <c r="R84" s="64"/>
+      <c r="S84" s="64"/>
+      <c r="T84" s="64"/>
+      <c r="U84" s="64"/>
+      <c r="V84" s="64"/>
+      <c r="W84" s="64"/>
+      <c r="X84" s="64"/>
+      <c r="Y84" s="65"/>
+    </row>
+    <row r="85" spans="1:25" s="6" customFormat="1">
+      <c r="A85" s="66"/>
+      <c r="B85" s="67"/>
+      <c r="C85" s="67"/>
+      <c r="D85" s="67"/>
+      <c r="E85" s="67"/>
+      <c r="F85" s="67"/>
+      <c r="G85" s="67"/>
+      <c r="H85" s="67"/>
+      <c r="I85" s="67"/>
+      <c r="J85" s="67"/>
+      <c r="K85" s="67"/>
+      <c r="L85" s="67"/>
+      <c r="M85" s="67"/>
+      <c r="N85" s="67"/>
+      <c r="O85" s="67"/>
+      <c r="P85" s="67"/>
+      <c r="Q85" s="67"/>
+      <c r="R85" s="67"/>
+      <c r="S85" s="67"/>
+      <c r="T85" s="67"/>
+      <c r="U85" s="67"/>
+      <c r="V85" s="67"/>
+      <c r="W85" s="67"/>
+      <c r="X85" s="67"/>
+      <c r="Y85" s="68"/>
+    </row>
+    <row r="86" spans="1:25" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A86" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B86" s="61" t="s">
+      <c r="B86" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C86" s="61" t="s">
+      <c r="C86" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="D86" s="61" t="s">
+      <c r="D86" s="56" t="s">
         <v>88</v>
       </c>
       <c r="E86" s="20" t="s">
@@ -3449,65 +3495,65 @@
       <c r="H86" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I86" s="61" t="s">
+      <c r="I86" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="J86" s="61" t="s">
+      <c r="J86" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="K86" s="61" t="s">
+      <c r="K86" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="L86" s="61" t="s">
+      <c r="L86" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="M86" s="61" t="s">
+      <c r="M86" s="56" t="s">
         <v>93</v>
       </c>
       <c r="N86" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="O86" s="61" t="s">
+      <c r="O86" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="P86" s="61" t="s">
+      <c r="P86" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="Q86" s="61" t="s">
+      <c r="Q86" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="R86" s="64" t="s">
+      <c r="R86" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="S86" s="65"/>
-      <c r="T86" s="65"/>
-      <c r="U86" s="65"/>
-      <c r="V86" s="66"/>
-      <c r="W86" s="61" t="s">
+      <c r="S86" s="70"/>
+      <c r="T86" s="70"/>
+      <c r="U86" s="70"/>
+      <c r="V86" s="71"/>
+      <c r="W86" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="X86" s="61" t="s">
+      <c r="X86" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="Y86" s="61" t="s">
+      <c r="Y86" s="56" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" s="6" customFormat="1">
       <c r="A87" s="62"/>
       <c r="B87" s="62"/>
       <c r="C87" s="62"/>
       <c r="D87" s="62"/>
-      <c r="E87" s="61" t="s">
+      <c r="E87" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="F87" s="61" t="s">
+      <c r="F87" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="G87" s="61" t="s">
+      <c r="G87" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="H87" s="61" t="s">
+      <c r="H87" s="56" t="s">
         <v>103</v>
       </c>
       <c r="I87" s="62"/>
@@ -3515,66 +3561,66 @@
       <c r="K87" s="62"/>
       <c r="L87" s="62"/>
       <c r="M87" s="62"/>
-      <c r="N87" s="61" t="s">
+      <c r="N87" s="56" t="s">
         <v>104</v>
       </c>
       <c r="O87" s="62"/>
       <c r="P87" s="62"/>
       <c r="Q87" s="62"/>
-      <c r="R87" s="61" t="s">
+      <c r="R87" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="S87" s="61" t="s">
+      <c r="S87" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="T87" s="61" t="s">
+      <c r="T87" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="U87" s="61" t="s">
+      <c r="U87" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="V87" s="61" t="s">
+      <c r="V87" s="56" t="s">
         <v>109</v>
       </c>
       <c r="W87" s="62"/>
       <c r="X87" s="62"/>
       <c r="Y87" s="62"/>
     </row>
-    <row r="88" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="63"/>
-      <c r="B88" s="63"/>
-      <c r="C88" s="63"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="63"/>
-      <c r="F88" s="63"/>
-      <c r="G88" s="63"/>
-      <c r="H88" s="63"/>
-      <c r="I88" s="63"/>
-      <c r="J88" s="63"/>
-      <c r="K88" s="63"/>
-      <c r="L88" s="63"/>
-      <c r="M88" s="63"/>
-      <c r="N88" s="63"/>
-      <c r="O88" s="63"/>
-      <c r="P88" s="63"/>
-      <c r="Q88" s="63"/>
-      <c r="R88" s="63"/>
-      <c r="S88" s="63"/>
-      <c r="T88" s="63"/>
-      <c r="U88" s="63"/>
-      <c r="V88" s="63"/>
-      <c r="W88" s="63"/>
-      <c r="X88" s="63"/>
-      <c r="Y88" s="63"/>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" s="6" customFormat="1">
+      <c r="A88" s="57"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="57"/>
+      <c r="D88" s="57"/>
+      <c r="E88" s="57"/>
+      <c r="F88" s="57"/>
+      <c r="G88" s="57"/>
+      <c r="H88" s="57"/>
+      <c r="I88" s="57"/>
+      <c r="J88" s="57"/>
+      <c r="K88" s="57"/>
+      <c r="L88" s="57"/>
+      <c r="M88" s="57"/>
+      <c r="N88" s="57"/>
+      <c r="O88" s="57"/>
+      <c r="P88" s="57"/>
+      <c r="Q88" s="57"/>
+      <c r="R88" s="57"/>
+      <c r="S88" s="57"/>
+      <c r="T88" s="57"/>
+      <c r="U88" s="57"/>
+      <c r="V88" s="57"/>
+      <c r="W88" s="57"/>
+      <c r="X88" s="57"/>
+      <c r="Y88" s="57"/>
+    </row>
+    <row r="89" spans="1:25">
       <c r="A89" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C89" s="67" t="s">
+      <c r="C89" s="51" t="s">
         <v>81</v>
       </c>
       <c r="D89" s="38"/>
@@ -3597,12 +3643,12 @@
       <c r="U89" s="38"/>
       <c r="V89" s="38"/>
       <c r="W89" s="39"/>
-      <c r="X89" s="67" t="s">
+      <c r="X89" s="51" t="s">
         <v>82</v>
       </c>
       <c r="Y89" s="39"/>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25">
       <c r="A90" s="8" t="s">
         <v>20</v>
       </c>
@@ -3679,57 +3725,57 @@
         <v>116</v>
       </c>
     </row>
-    <row r="100" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="46"/>
-      <c r="B100" s="47"/>
-      <c r="C100" s="47"/>
-      <c r="D100" s="47"/>
-      <c r="E100" s="47"/>
-      <c r="F100" s="47"/>
-      <c r="G100" s="47"/>
-      <c r="H100" s="47"/>
-      <c r="I100" s="47"/>
-      <c r="J100" s="47"/>
-      <c r="K100" s="47"/>
-      <c r="L100" s="47"/>
-      <c r="M100" s="48"/>
-    </row>
-    <row r="101" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="49" t="s">
+    <row r="100" spans="1:13" s="6" customFormat="1">
+      <c r="A100" s="41"/>
+      <c r="B100" s="42"/>
+      <c r="C100" s="42"/>
+      <c r="D100" s="42"/>
+      <c r="E100" s="42"/>
+      <c r="F100" s="42"/>
+      <c r="G100" s="42"/>
+      <c r="H100" s="42"/>
+      <c r="I100" s="42"/>
+      <c r="J100" s="42"/>
+      <c r="K100" s="42"/>
+      <c r="L100" s="42"/>
+      <c r="M100" s="43"/>
+    </row>
+    <row r="101" spans="1:13" s="6" customFormat="1">
+      <c r="A101" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="B101" s="50"/>
-      <c r="C101" s="50"/>
-      <c r="D101" s="50"/>
-      <c r="E101" s="50"/>
-      <c r="F101" s="50"/>
-      <c r="G101" s="50"/>
-      <c r="H101" s="50"/>
-      <c r="I101" s="50"/>
-      <c r="J101" s="50"/>
-      <c r="K101" s="50"/>
-      <c r="L101" s="50"/>
-      <c r="M101" s="51"/>
-    </row>
-    <row r="102" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="52" t="s">
+      <c r="B101" s="45"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="45"/>
+      <c r="E101" s="45"/>
+      <c r="F101" s="45"/>
+      <c r="G101" s="45"/>
+      <c r="H101" s="45"/>
+      <c r="I101" s="45"/>
+      <c r="J101" s="45"/>
+      <c r="K101" s="45"/>
+      <c r="L101" s="45"/>
+      <c r="M101" s="46"/>
+    </row>
+    <row r="102" spans="1:13" s="6" customFormat="1">
+      <c r="A102" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="B102" s="53"/>
-      <c r="C102" s="53"/>
-      <c r="D102" s="53"/>
-      <c r="E102" s="53"/>
-      <c r="F102" s="53"/>
-      <c r="G102" s="53"/>
-      <c r="H102" s="53"/>
-      <c r="I102" s="53"/>
-      <c r="J102" s="53"/>
-      <c r="K102" s="53"/>
-      <c r="L102" s="53"/>
-      <c r="M102" s="54"/>
-    </row>
-    <row r="103" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="43" t="s">
+      <c r="B102" s="48"/>
+      <c r="C102" s="48"/>
+      <c r="D102" s="48"/>
+      <c r="E102" s="48"/>
+      <c r="F102" s="48"/>
+      <c r="G102" s="48"/>
+      <c r="H102" s="48"/>
+      <c r="I102" s="48"/>
+      <c r="J102" s="48"/>
+      <c r="K102" s="48"/>
+      <c r="L102" s="48"/>
+      <c r="M102" s="49"/>
+    </row>
+    <row r="103" spans="1:13" s="6" customFormat="1">
+      <c r="A103" s="72" t="s">
         <v>38</v>
       </c>
       <c r="B103" s="37" t="s">
@@ -3755,10 +3801,10 @@
       <c r="L103" s="38"/>
       <c r="M103" s="39"/>
     </row>
-    <row r="104" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
-      <c r="B104" s="40"/>
-      <c r="C104" s="40"/>
+    <row r="104" spans="1:13" s="6" customFormat="1">
+      <c r="A104" s="50"/>
+      <c r="B104" s="50"/>
+      <c r="C104" s="50"/>
       <c r="D104" s="37" t="s">
         <v>8</v>
       </c>
@@ -3782,11 +3828,11 @@
       </c>
       <c r="M104" s="39"/>
     </row>
-    <row r="105" spans="1:13" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" s="6" customFormat="1" ht="38.25">
       <c r="A105" s="37"/>
-      <c r="B105" s="41"/>
-      <c r="C105" s="41"/>
-      <c r="D105" s="41"/>
+      <c r="B105" s="40"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="40"/>
       <c r="E105" s="9" t="s">
         <v>11</v>
       </c>
@@ -3811,7 +3857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" s="6" customFormat="1">
       <c r="A106" s="10" t="s">
         <v>38</v>
       </c>
@@ -3834,7 +3880,7 @@
       <c r="L106" s="38"/>
       <c r="M106" s="39"/>
     </row>
-    <row r="107" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" s="6" customFormat="1">
       <c r="A107" s="9" t="s">
         <v>20</v>
       </c>
@@ -3875,63 +3921,63 @@
         <v>32</v>
       </c>
     </row>
-    <row r="117" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="46"/>
-      <c r="B117" s="47"/>
-      <c r="C117" s="47"/>
-      <c r="D117" s="47"/>
-      <c r="E117" s="47"/>
-      <c r="F117" s="47"/>
-      <c r="G117" s="47"/>
-      <c r="H117" s="47"/>
-      <c r="I117" s="47"/>
-      <c r="J117" s="47"/>
-      <c r="K117" s="47"/>
-      <c r="L117" s="47"/>
-      <c r="M117" s="47"/>
-      <c r="N117" s="47"/>
-      <c r="O117" s="48"/>
-    </row>
-    <row r="118" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="49" t="s">
+    <row r="117" spans="1:15" s="6" customFormat="1">
+      <c r="A117" s="41"/>
+      <c r="B117" s="42"/>
+      <c r="C117" s="42"/>
+      <c r="D117" s="42"/>
+      <c r="E117" s="42"/>
+      <c r="F117" s="42"/>
+      <c r="G117" s="42"/>
+      <c r="H117" s="42"/>
+      <c r="I117" s="42"/>
+      <c r="J117" s="42"/>
+      <c r="K117" s="42"/>
+      <c r="L117" s="42"/>
+      <c r="M117" s="42"/>
+      <c r="N117" s="42"/>
+      <c r="O117" s="43"/>
+    </row>
+    <row r="118" spans="1:15" s="6" customFormat="1">
+      <c r="A118" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="B118" s="50"/>
-      <c r="C118" s="50"/>
-      <c r="D118" s="50"/>
-      <c r="E118" s="50"/>
-      <c r="F118" s="50"/>
-      <c r="G118" s="50"/>
-      <c r="H118" s="50"/>
-      <c r="I118" s="50"/>
-      <c r="J118" s="50"/>
-      <c r="K118" s="50"/>
-      <c r="L118" s="50"/>
-      <c r="M118" s="50"/>
-      <c r="N118" s="50"/>
-      <c r="O118" s="51"/>
-    </row>
-    <row r="119" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="52" t="s">
+      <c r="B118" s="45"/>
+      <c r="C118" s="45"/>
+      <c r="D118" s="45"/>
+      <c r="E118" s="45"/>
+      <c r="F118" s="45"/>
+      <c r="G118" s="45"/>
+      <c r="H118" s="45"/>
+      <c r="I118" s="45"/>
+      <c r="J118" s="45"/>
+      <c r="K118" s="45"/>
+      <c r="L118" s="45"/>
+      <c r="M118" s="45"/>
+      <c r="N118" s="45"/>
+      <c r="O118" s="46"/>
+    </row>
+    <row r="119" spans="1:15" s="6" customFormat="1">
+      <c r="A119" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="B119" s="53"/>
-      <c r="C119" s="53"/>
-      <c r="D119" s="53"/>
-      <c r="E119" s="53"/>
-      <c r="F119" s="53"/>
-      <c r="G119" s="53"/>
-      <c r="H119" s="53"/>
-      <c r="I119" s="53"/>
-      <c r="J119" s="53"/>
-      <c r="K119" s="53"/>
-      <c r="L119" s="53"/>
-      <c r="M119" s="53"/>
-      <c r="N119" s="53"/>
-      <c r="O119" s="54"/>
-    </row>
-    <row r="120" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="43" t="s">
+      <c r="B119" s="48"/>
+      <c r="C119" s="48"/>
+      <c r="D119" s="48"/>
+      <c r="E119" s="48"/>
+      <c r="F119" s="48"/>
+      <c r="G119" s="48"/>
+      <c r="H119" s="48"/>
+      <c r="I119" s="48"/>
+      <c r="J119" s="48"/>
+      <c r="K119" s="48"/>
+      <c r="L119" s="48"/>
+      <c r="M119" s="48"/>
+      <c r="N119" s="48"/>
+      <c r="O119" s="49"/>
+    </row>
+    <row r="120" spans="1:15" s="6" customFormat="1">
+      <c r="A120" s="72" t="s">
         <v>38</v>
       </c>
       <c r="B120" s="37" t="s">
@@ -3965,10 +4011,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="121" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="44"/>
-      <c r="B121" s="40"/>
-      <c r="C121" s="40"/>
+    <row r="121" spans="1:15" s="6" customFormat="1">
+      <c r="A121" s="58"/>
+      <c r="B121" s="50"/>
+      <c r="C121" s="50"/>
       <c r="D121" s="37" t="s">
         <v>66</v>
       </c>
@@ -3984,23 +4030,23 @@
       <c r="H121" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="I121" s="45"/>
-      <c r="J121" s="42"/>
-      <c r="K121" s="40"/>
-      <c r="L121" s="40"/>
-      <c r="M121" s="41"/>
-      <c r="N121" s="42"/>
-      <c r="O121" s="40"/>
-    </row>
-    <row r="122" spans="1:15" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="I121" s="59"/>
+      <c r="J121" s="61"/>
+      <c r="K121" s="50"/>
+      <c r="L121" s="50"/>
+      <c r="M121" s="40"/>
+      <c r="N121" s="61"/>
+      <c r="O121" s="50"/>
+    </row>
+    <row r="122" spans="1:15" s="6" customFormat="1" ht="38.25">
       <c r="A122" s="37"/>
-      <c r="B122" s="41"/>
-      <c r="C122" s="41"/>
-      <c r="D122" s="41"/>
-      <c r="E122" s="41"/>
-      <c r="F122" s="41"/>
-      <c r="G122" s="41"/>
-      <c r="H122" s="41"/>
+      <c r="B122" s="40"/>
+      <c r="C122" s="40"/>
+      <c r="D122" s="40"/>
+      <c r="E122" s="40"/>
+      <c r="F122" s="40"/>
+      <c r="G122" s="40"/>
+      <c r="H122" s="40"/>
       <c r="I122" s="9" t="s">
         <v>76</v>
       </c>
@@ -4008,16 +4054,16 @@
         <v>125</v>
       </c>
       <c r="K122" s="37"/>
-      <c r="L122" s="41"/>
+      <c r="L122" s="40"/>
       <c r="M122" s="9" t="s">
         <v>126</v>
       </c>
       <c r="N122" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="O122" s="41"/>
-    </row>
-    <row r="123" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O122" s="40"/>
+    </row>
+    <row r="123" spans="1:15" s="6" customFormat="1">
       <c r="A123" s="10" t="s">
         <v>38</v>
       </c>
@@ -4046,7 +4092,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="124" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" s="6" customFormat="1">
       <c r="A124" s="9" t="s">
         <v>20</v>
       </c>
@@ -4093,93 +4139,93 @@
         <v>34</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="68"/>
-      <c r="B133" s="47"/>
-      <c r="C133" s="47"/>
-      <c r="D133" s="47"/>
-      <c r="E133" s="47"/>
-      <c r="F133" s="47"/>
-      <c r="G133" s="47"/>
-      <c r="H133" s="47"/>
-      <c r="I133" s="48"/>
-    </row>
-    <row r="134" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="71" t="s">
+    <row r="133" spans="1:9" s="6" customFormat="1">
+      <c r="A133" s="52"/>
+      <c r="B133" s="42"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="42"/>
+      <c r="E133" s="42"/>
+      <c r="F133" s="42"/>
+      <c r="G133" s="42"/>
+      <c r="H133" s="42"/>
+      <c r="I133" s="43"/>
+    </row>
+    <row r="134" spans="1:9" s="6" customFormat="1">
+      <c r="A134" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="B134" s="50"/>
-      <c r="C134" s="50"/>
-      <c r="D134" s="50"/>
-      <c r="E134" s="50"/>
-      <c r="F134" s="50"/>
-      <c r="G134" s="50"/>
-      <c r="H134" s="50"/>
-      <c r="I134" s="51"/>
-    </row>
-    <row r="135" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="69"/>
-      <c r="B135" s="53"/>
-      <c r="C135" s="53"/>
-      <c r="D135" s="53"/>
-      <c r="E135" s="53"/>
-      <c r="F135" s="53"/>
-      <c r="G135" s="53"/>
-      <c r="H135" s="53"/>
-      <c r="I135" s="54"/>
-    </row>
-    <row r="136" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="72" t="s">
+      <c r="B134" s="45"/>
+      <c r="C134" s="45"/>
+      <c r="D134" s="45"/>
+      <c r="E134" s="45"/>
+      <c r="F134" s="45"/>
+      <c r="G134" s="45"/>
+      <c r="H134" s="45"/>
+      <c r="I134" s="46"/>
+    </row>
+    <row r="135" spans="1:9" s="6" customFormat="1">
+      <c r="A135" s="54"/>
+      <c r="B135" s="48"/>
+      <c r="C135" s="48"/>
+      <c r="D135" s="48"/>
+      <c r="E135" s="48"/>
+      <c r="F135" s="48"/>
+      <c r="G135" s="48"/>
+      <c r="H135" s="48"/>
+      <c r="I135" s="49"/>
+    </row>
+    <row r="136" spans="1:9" s="6" customFormat="1">
+      <c r="A136" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="B136" s="67" t="s">
+      <c r="B136" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C136" s="67" t="s">
+      <c r="C136" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="D136" s="67" t="s">
+      <c r="D136" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="E136" s="67"/>
+      <c r="E136" s="51"/>
       <c r="F136" s="39"/>
-      <c r="G136" s="67" t="s">
+      <c r="G136" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="H136" s="67" t="s">
+      <c r="H136" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="I136" s="67" t="s">
+      <c r="I136" s="51" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="40"/>
-      <c r="B137" s="40"/>
-      <c r="C137" s="40"/>
-      <c r="D137" s="40"/>
+    <row r="137" spans="1:9" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A137" s="50"/>
+      <c r="B137" s="50"/>
+      <c r="C137" s="50"/>
+      <c r="D137" s="50"/>
       <c r="E137" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="F137" s="61" t="s">
+      <c r="F137" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="G137" s="40"/>
-      <c r="H137" s="40"/>
-      <c r="I137" s="40"/>
-    </row>
-    <row r="138" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="41"/>
-      <c r="B138" s="41"/>
-      <c r="C138" s="41"/>
-      <c r="D138" s="41"/>
-      <c r="E138" s="41"/>
-      <c r="F138" s="63"/>
-      <c r="G138" s="41"/>
-      <c r="H138" s="41"/>
-      <c r="I138" s="41"/>
-    </row>
-    <row r="139" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G137" s="50"/>
+      <c r="H137" s="50"/>
+      <c r="I137" s="50"/>
+    </row>
+    <row r="138" spans="1:9" s="6" customFormat="1">
+      <c r="A138" s="40"/>
+      <c r="B138" s="40"/>
+      <c r="C138" s="40"/>
+      <c r="D138" s="40"/>
+      <c r="E138" s="40"/>
+      <c r="F138" s="57"/>
+      <c r="G138" s="40"/>
+      <c r="H138" s="40"/>
+      <c r="I138" s="40"/>
+    </row>
+    <row r="139" spans="1:9" s="6" customFormat="1">
       <c r="A139" s="7" t="s">
         <v>38</v>
       </c>
@@ -4189,7 +4235,7 @@
       <c r="C139" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D139" s="67" t="s">
+      <c r="D139" s="51" t="s">
         <v>81</v>
       </c>
       <c r="E139" s="38"/>
@@ -4202,7 +4248,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" s="6" customFormat="1">
       <c r="A140" s="8" t="s">
         <v>20</v>
       </c>
@@ -4231,7 +4277,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="F141" s="5" t="s">
         <v>134</v>
       </c>
@@ -4247,29 +4293,190 @@
     </row>
   </sheetData>
   <mergeCells count="231">
-    <mergeCell ref="P76:S76"/>
-    <mergeCell ref="T76:W76"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:N78"/>
-    <mergeCell ref="O77:O78"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="R77:R78"/>
-    <mergeCell ref="S77:S78"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="V77:V78"/>
-    <mergeCell ref="W77:W78"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:K76"/>
-    <mergeCell ref="L76:O76"/>
+    <mergeCell ref="D123:L123"/>
+    <mergeCell ref="M123:N123"/>
+    <mergeCell ref="K120:K122"/>
+    <mergeCell ref="L120:L122"/>
+    <mergeCell ref="M120:N121"/>
+    <mergeCell ref="O120:O122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="I120:J121"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:M106"/>
+    <mergeCell ref="A117:O117"/>
+    <mergeCell ref="A118:O118"/>
+    <mergeCell ref="A119:O119"/>
+    <mergeCell ref="A100:M100"/>
+    <mergeCell ref="A101:M101"/>
+    <mergeCell ref="A102:M102"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="D103:G103"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="K103:M103"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="I104:J104"/>
+    <mergeCell ref="K104:K105"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="A84:Y84"/>
+    <mergeCell ref="A85:Y85"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="I86:I88"/>
+    <mergeCell ref="J86:J88"/>
+    <mergeCell ref="K86:K88"/>
+    <mergeCell ref="L86:L88"/>
+    <mergeCell ref="M86:M88"/>
+    <mergeCell ref="O86:O88"/>
+    <mergeCell ref="P86:P88"/>
+    <mergeCell ref="Q86:Q88"/>
+    <mergeCell ref="R86:V86"/>
+    <mergeCell ref="C89:W89"/>
+    <mergeCell ref="X89:Y89"/>
+    <mergeCell ref="W86:W88"/>
+    <mergeCell ref="X86:X88"/>
+    <mergeCell ref="Y86:Y88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="R87:R88"/>
+    <mergeCell ref="S87:S88"/>
+    <mergeCell ref="T87:T88"/>
+    <mergeCell ref="U87:U88"/>
+    <mergeCell ref="V87:V88"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:Q7"/>
+    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A20:Y20"/>
+    <mergeCell ref="A21:Y21"/>
+    <mergeCell ref="A22:Y22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="U23:X24"/>
+    <mergeCell ref="B26:M26"/>
+    <mergeCell ref="N26:S26"/>
+    <mergeCell ref="T26:X26"/>
+    <mergeCell ref="Y23:Y25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="A36:R36"/>
+    <mergeCell ref="A37:R37"/>
+    <mergeCell ref="A38:R38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:K41"/>
+    <mergeCell ref="L39:L41"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:O41"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="R39:R41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="D42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="A51:V51"/>
+    <mergeCell ref="A52:V52"/>
+    <mergeCell ref="A53:V53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="J54:J56"/>
+    <mergeCell ref="K54:K56"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="J57:R57"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="R54:R56"/>
+    <mergeCell ref="S54:S56"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="V54:V56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="T55:T56"/>
+    <mergeCell ref="U55:U56"/>
+    <mergeCell ref="D139:G139"/>
+    <mergeCell ref="A133:I133"/>
+    <mergeCell ref="A134:I134"/>
+    <mergeCell ref="A135:I135"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="C136:C138"/>
+    <mergeCell ref="D136:D138"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="G136:G138"/>
+    <mergeCell ref="H136:H138"/>
+    <mergeCell ref="I136:I138"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="F137:F138"/>
     <mergeCell ref="A73:W73"/>
     <mergeCell ref="A74:W74"/>
     <mergeCell ref="A75:W75"/>
@@ -4294,190 +4501,29 @@
     <mergeCell ref="O67:P67"/>
     <mergeCell ref="Q67:Q68"/>
     <mergeCell ref="R67:R68"/>
-    <mergeCell ref="D139:G139"/>
-    <mergeCell ref="A133:I133"/>
-    <mergeCell ref="A134:I134"/>
-    <mergeCell ref="A135:I135"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="C136:C138"/>
-    <mergeCell ref="D136:D138"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="G136:G138"/>
-    <mergeCell ref="H136:H138"/>
-    <mergeCell ref="I136:I138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="J57:R57"/>
-    <mergeCell ref="S57:T57"/>
-    <mergeCell ref="R54:R56"/>
-    <mergeCell ref="S54:S56"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="V54:V56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="T55:T56"/>
-    <mergeCell ref="U55:U56"/>
-    <mergeCell ref="A52:V52"/>
-    <mergeCell ref="A53:V53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="I54:I56"/>
-    <mergeCell ref="J54:J56"/>
-    <mergeCell ref="K54:K56"/>
-    <mergeCell ref="L54:O54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="D42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="A51:V51"/>
-    <mergeCell ref="A36:R36"/>
-    <mergeCell ref="A37:R37"/>
-    <mergeCell ref="A38:R38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:K41"/>
-    <mergeCell ref="L39:L41"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:O41"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="R39:R41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="Q40:Q41"/>
-    <mergeCell ref="B26:M26"/>
-    <mergeCell ref="N26:S26"/>
-    <mergeCell ref="T26:X26"/>
-    <mergeCell ref="Y23:Y25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="A20:Y20"/>
-    <mergeCell ref="A21:Y21"/>
-    <mergeCell ref="A22:Y22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="U23:X24"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:Q7"/>
-    <mergeCell ref="R6:R8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="C89:W89"/>
-    <mergeCell ref="X89:Y89"/>
-    <mergeCell ref="W86:W88"/>
-    <mergeCell ref="X86:X88"/>
-    <mergeCell ref="Y86:Y88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="N87:N88"/>
-    <mergeCell ref="R87:R88"/>
-    <mergeCell ref="S87:S88"/>
-    <mergeCell ref="T87:T88"/>
-    <mergeCell ref="U87:U88"/>
-    <mergeCell ref="V87:V88"/>
-    <mergeCell ref="A84:Y84"/>
-    <mergeCell ref="A85:Y85"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="I86:I88"/>
-    <mergeCell ref="J86:J88"/>
-    <mergeCell ref="K86:K88"/>
-    <mergeCell ref="L86:L88"/>
-    <mergeCell ref="M86:M88"/>
-    <mergeCell ref="O86:O88"/>
-    <mergeCell ref="P86:P88"/>
-    <mergeCell ref="Q86:Q88"/>
-    <mergeCell ref="R86:V86"/>
-    <mergeCell ref="A100:M100"/>
-    <mergeCell ref="A101:M101"/>
-    <mergeCell ref="A102:M102"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="D103:G103"/>
-    <mergeCell ref="H103:J103"/>
-    <mergeCell ref="K103:M103"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="I104:J104"/>
-    <mergeCell ref="K104:K105"/>
-    <mergeCell ref="L104:M104"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="I120:J121"/>
-    <mergeCell ref="C106:G106"/>
-    <mergeCell ref="H106:M106"/>
-    <mergeCell ref="A117:O117"/>
-    <mergeCell ref="A118:O118"/>
-    <mergeCell ref="A119:O119"/>
-    <mergeCell ref="D123:L123"/>
-    <mergeCell ref="M123:N123"/>
-    <mergeCell ref="K120:K122"/>
-    <mergeCell ref="L120:L122"/>
-    <mergeCell ref="M120:N121"/>
-    <mergeCell ref="O120:O122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:O76"/>
+    <mergeCell ref="P76:S76"/>
+    <mergeCell ref="T76:W76"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:N78"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="R77:R78"/>
+    <mergeCell ref="S77:S78"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="V77:V78"/>
+    <mergeCell ref="W77:W78"/>
   </mergeCells>
   <pageMargins left="0.3543307086614173" right="0.3543307086614173" top="0.3543307086614173" bottom="0.3543307086614173" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4488,14 +4534,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" customWidth="1"/>
@@ -4524,14 +4570,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:Y125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H92" workbookViewId="0">
-      <selection activeCell="M110" sqref="M110"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="N99" sqref="N99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.140625" customWidth="1"/>
@@ -4551,64 +4597,64 @@
     <col min="23" max="23" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="48"/>
-    </row>
-    <row r="4" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+    <row r="3" spans="1:21" s="6" customFormat="1">
+      <c r="A3" s="52"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="43"/>
+    </row>
+    <row r="4" spans="1:21" s="6" customFormat="1">
+      <c r="A4" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="51"/>
-    </row>
-    <row r="5" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="54"/>
-    </row>
-    <row r="6" spans="1:21" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="46"/>
+    </row>
+    <row r="5" spans="1:21" s="6" customFormat="1">
+      <c r="A5" s="54"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="49"/>
+    </row>
+    <row r="6" spans="1:21" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="51" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="73" t="s">
@@ -4617,60 +4663,60 @@
       <c r="D6" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="74"/>
       <c r="H6" s="73" t="s">
         <v>198</v>
       </c>
-      <c r="I6" s="97"/>
-      <c r="J6" s="98"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="74"/>
       <c r="K6" s="73" t="s">
         <v>199</v>
       </c>
-      <c r="L6" s="97"/>
-      <c r="M6" s="98"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="74"/>
       <c r="N6" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="O6" s="67" t="s">
+      <c r="O6" s="51" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="67" t="s">
+    <row r="7" spans="1:21" s="6" customFormat="1">
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="51" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="39"/>
-      <c r="H7" s="67" t="s">
+      <c r="H7" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="67" t="s">
+      <c r="I7" s="51" t="s">
         <v>9</v>
       </c>
       <c r="J7" s="39"/>
-      <c r="K7" s="67" t="s">
+      <c r="K7" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="67" t="s">
+      <c r="L7" s="51" t="s">
         <v>9</v>
       </c>
       <c r="M7" s="39"/>
       <c r="N7" s="79"/>
-      <c r="O7" s="40"/>
-    </row>
-    <row r="8" spans="1:21" s="6" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="41"/>
+      <c r="O7" s="50"/>
+    </row>
+    <row r="8" spans="1:21" s="6" customFormat="1" ht="61.5" customHeight="1">
+      <c r="A8" s="51"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="11" t="s">
         <v>11</v>
       </c>
@@ -4680,14 +4726,14 @@
       <c r="G8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="67"/>
+      <c r="H8" s="51"/>
       <c r="I8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="67"/>
+      <c r="K8" s="51"/>
       <c r="L8" s="11" t="s">
         <v>11</v>
       </c>
@@ -4695,23 +4741,23 @@
         <v>12</v>
       </c>
       <c r="N8" s="80"/>
-      <c r="O8" s="41"/>
-    </row>
-    <row r="9" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="40"/>
+    </row>
+    <row r="9" spans="1:21" s="6" customFormat="1">
       <c r="A9" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="51" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
       <c r="F9" s="38"/>
       <c r="G9" s="39"/>
-      <c r="H9" s="67" t="s">
+      <c r="H9" s="51" t="s">
         <v>19</v>
       </c>
       <c r="I9" s="38"/>
@@ -4726,7 +4772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" s="6" customFormat="1">
       <c r="A10" s="11" t="s">
         <v>20</v>
       </c>
@@ -4773,7 +4819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" s="6" customFormat="1">
       <c r="N11" s="12" t="s">
         <v>140</v>
       </c>
@@ -4781,186 +4827,186 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="68"/>
-      <c r="B15" s="47" t="s">
+    <row r="12" spans="1:21" s="6" customFormat="1"/>
+    <row r="13" spans="1:21" s="6" customFormat="1"/>
+    <row r="14" spans="1:21" s="6" customFormat="1"/>
+    <row r="15" spans="1:21" s="6" customFormat="1">
+      <c r="A15" s="52"/>
+      <c r="B15" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="47" t="s">
+      <c r="H15" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="47" t="s">
+      <c r="I15" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="47" t="s">
+      <c r="J15" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="K15" s="47" t="s">
+      <c r="K15" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="L15" s="47" t="s">
+      <c r="L15" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="M15" s="47" t="s">
+      <c r="M15" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="N15" s="47" t="s">
+      <c r="N15" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="O15" s="47" t="s">
+      <c r="O15" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="P15" s="47" t="s">
+      <c r="P15" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="Q15" s="47" t="s">
+      <c r="Q15" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="R15" s="47" t="s">
+      <c r="R15" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="S15" s="47" t="s">
+      <c r="S15" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="T15" s="47" t="s">
+      <c r="T15" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="U15" s="47" t="s">
+      <c r="U15" s="42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+    <row r="16" spans="1:21" s="6" customFormat="1">
+      <c r="A16" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="50" t="s">
+      <c r="G16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="50" t="s">
+      <c r="H16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="50" t="s">
+      <c r="I16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="50" t="s">
+      <c r="J16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="K16" s="50" t="s">
+      <c r="K16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="L16" s="50" t="s">
+      <c r="L16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="50" t="s">
+      <c r="M16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="N16" s="50" t="s">
+      <c r="N16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="O16" s="50" t="s">
+      <c r="O16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="P16" s="50" t="s">
+      <c r="P16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="Q16" s="50" t="s">
+      <c r="Q16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="R16" s="50" t="s">
+      <c r="R16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="S16" s="50" t="s">
+      <c r="S16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="T16" s="50" t="s">
+      <c r="T16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="U16" s="50" t="s">
+      <c r="U16" s="45" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
-    </row>
-    <row r="18" spans="1:21" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="72" t="s">
+    <row r="17" spans="1:21" s="6" customFormat="1">
+      <c r="A17" s="54"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+    </row>
+    <row r="18" spans="1:21" s="6" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A18" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="67" t="s">
+      <c r="E18" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="67" t="s">
+      <c r="F18" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="67" t="s">
+      <c r="G18" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="67" t="s">
+      <c r="H18" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="67" t="s">
+      <c r="I18" s="51" t="s">
         <v>49</v>
       </c>
       <c r="J18" s="73" t="s">
@@ -4969,70 +5015,70 @@
       <c r="K18" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="L18" s="97"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="98"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="74"/>
       <c r="O18" s="73" t="s">
         <v>198</v>
       </c>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="98"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="74"/>
       <c r="R18" s="73" t="s">
         <v>199</v>
       </c>
-      <c r="S18" s="97"/>
-      <c r="T18" s="98"/>
+      <c r="S18" s="90"/>
+      <c r="T18" s="74"/>
       <c r="U18" s="78" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="67" t="s">
+    <row r="19" spans="1:21" s="6" customFormat="1">
+      <c r="A19" s="58"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="L19" s="67" t="s">
+      <c r="L19" s="51" t="s">
         <v>9</v>
       </c>
       <c r="M19" s="38"/>
       <c r="N19" s="39"/>
-      <c r="O19" s="67" t="s">
+      <c r="O19" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="P19" s="67" t="s">
+      <c r="P19" s="51" t="s">
         <v>9</v>
       </c>
       <c r="Q19" s="39"/>
-      <c r="R19" s="67" t="s">
+      <c r="R19" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="S19" s="67" t="s">
+      <c r="S19" s="51" t="s">
         <v>9</v>
       </c>
       <c r="T19" s="39"/>
       <c r="U19" s="79"/>
     </row>
-    <row r="20" spans="1:21" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="41"/>
+    <row r="20" spans="1:21" s="6" customFormat="1" ht="25.5">
+      <c r="A20" s="51"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="40"/>
       <c r="L20" s="11" t="s">
         <v>11</v>
       </c>
@@ -5042,14 +5088,14 @@
       <c r="N20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O20" s="67"/>
+      <c r="O20" s="51"/>
       <c r="P20" s="11" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="R20" s="67"/>
+      <c r="R20" s="51"/>
       <c r="S20" s="11" t="s">
         <v>11</v>
       </c>
@@ -5058,36 +5104,36 @@
       </c>
       <c r="U20" s="80"/>
     </row>
-    <row r="21" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="99" t="s">
+    <row r="21" spans="1:21" s="6" customFormat="1">
+      <c r="A21" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="93" t="s">
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="P21" s="102"/>
-      <c r="Q21" s="102"/>
-      <c r="R21" s="102"/>
-      <c r="S21" s="102"/>
-      <c r="T21" s="94"/>
+      <c r="P21" s="88"/>
+      <c r="Q21" s="88"/>
+      <c r="R21" s="88"/>
+      <c r="S21" s="88"/>
+      <c r="T21" s="89"/>
       <c r="U21" s="34" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" s="6" customFormat="1">
       <c r="A22" s="11" t="s">
         <v>20</v>
       </c>
@@ -5152,87 +5198,87 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" s="6" customFormat="1">
       <c r="U23" s="12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="68"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="48"/>
-    </row>
-    <row r="28" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="71" t="s">
+    <row r="27" spans="1:21" s="6" customFormat="1">
+      <c r="A27" s="52"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="43"/>
+    </row>
+    <row r="28" spans="1:21" s="6" customFormat="1">
+      <c r="A28" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="51"/>
-    </row>
-    <row r="29" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="69"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="54"/>
-    </row>
-    <row r="30" spans="1:21" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="67" t="s">
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="46"/>
+    </row>
+    <row r="29" spans="1:21" s="6" customFormat="1">
+      <c r="A29" s="54"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="49"/>
+    </row>
+    <row r="30" spans="1:21" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A30" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="67" t="s">
+      <c r="D30" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="67" t="s">
+      <c r="E30" s="51" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="38"/>
@@ -5247,87 +5293,87 @@
       <c r="K30" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="L30" s="67" t="s">
+      <c r="L30" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="M30" s="67" t="s">
+      <c r="M30" s="51" t="s">
         <v>70</v>
       </c>
       <c r="N30" s="39"/>
-      <c r="O30" s="67" t="s">
+      <c r="O30" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="P30" s="67" t="s">
+      <c r="P30" s="51" t="s">
         <v>72</v>
       </c>
       <c r="Q30" s="39"/>
-      <c r="R30" s="67" t="s">
+      <c r="R30" s="51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="67" t="s">
+    <row r="31" spans="1:21" s="6" customFormat="1">
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="51" t="s">
         <v>73</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="67" t="s">
+      <c r="G31" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="H31" s="67" t="s">
+      <c r="H31" s="51" t="s">
         <v>75</v>
       </c>
       <c r="I31" s="15" t="s">
         <v>76</v>
       </c>
       <c r="J31" s="79"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="67" t="s">
+      <c r="K31" s="91"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="N31" s="67" t="s">
+      <c r="N31" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="O31" s="40"/>
-      <c r="P31" s="67" t="s">
+      <c r="O31" s="50"/>
+      <c r="P31" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="Q31" s="67" t="s">
+      <c r="Q31" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="R31" s="40"/>
-    </row>
-    <row r="32" spans="1:21" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="67"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
+      <c r="R31" s="50"/>
+    </row>
+    <row r="32" spans="1:21" s="6" customFormat="1" ht="38.25">
+      <c r="A32" s="51"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
       <c r="F32" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
       <c r="I32" s="19" t="s">
         <v>150</v>
       </c>
       <c r="J32" s="80"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-    </row>
-    <row r="33" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K32" s="92"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+    </row>
+    <row r="33" spans="1:22" s="6" customFormat="1">
       <c r="A33" s="16" t="s">
         <v>38</v>
       </c>
@@ -5337,7 +5383,7 @@
       <c r="C33" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="67" t="s">
+      <c r="D33" s="51" t="s">
         <v>81</v>
       </c>
       <c r="E33" s="38"/>
@@ -5348,14 +5394,14 @@
       <c r="J33" s="38"/>
       <c r="K33" s="38"/>
       <c r="L33" s="39"/>
-      <c r="M33" s="67" t="s">
+      <c r="M33" s="51" t="s">
         <v>82</v>
       </c>
       <c r="N33" s="39"/>
       <c r="O33" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="P33" s="67" t="s">
+      <c r="P33" s="51" t="s">
         <v>82</v>
       </c>
       <c r="Q33" s="39"/>
@@ -5363,7 +5409,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" s="6" customFormat="1">
       <c r="A34" s="15" t="s">
         <v>20</v>
       </c>
@@ -5419,14 +5465,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:22" s="6" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" s="6" customFormat="1" ht="63" customHeight="1">
       <c r="I35" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="J35" s="95" t="s">
+      <c r="J35" s="93" t="s">
         <v>147</v>
       </c>
-      <c r="K35" s="95" t="s">
+      <c r="K35" s="93" t="s">
         <v>146</v>
       </c>
       <c r="L35" s="12" t="s">
@@ -5439,125 +5485,125 @@
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" s="6" customFormat="1">
       <c r="I36" s="17"/>
-      <c r="J36" s="96"/>
-      <c r="K36" s="96"/>
-    </row>
-    <row r="37" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J36" s="94"/>
+      <c r="K36" s="94"/>
+    </row>
+    <row r="37" spans="1:22" s="6" customFormat="1">
       <c r="I37" s="17"/>
-      <c r="J37" s="96"/>
-      <c r="K37" s="96"/>
-    </row>
-    <row r="41" spans="1:22" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="68"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="47"/>
-      <c r="S41" s="47"/>
-      <c r="T41" s="47"/>
-      <c r="U41" s="47"/>
-      <c r="V41" s="48"/>
-    </row>
-    <row r="42" spans="1:22" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="71" t="s">
+      <c r="J37" s="94"/>
+      <c r="K37" s="94"/>
+    </row>
+    <row r="41" spans="1:22" s="6" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A41" s="52"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="42"/>
+      <c r="T41" s="42"/>
+      <c r="U41" s="42"/>
+      <c r="V41" s="43"/>
+    </row>
+    <row r="42" spans="1:22" s="6" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A42" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="50"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="50"/>
-      <c r="Q42" s="50"/>
-      <c r="R42" s="50"/>
-      <c r="S42" s="50"/>
-      <c r="T42" s="50"/>
-      <c r="U42" s="50"/>
-      <c r="V42" s="51"/>
-    </row>
-    <row r="43" spans="1:22" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="69"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="53"/>
-      <c r="R43" s="53"/>
-      <c r="S43" s="53"/>
-      <c r="T43" s="53"/>
-      <c r="U43" s="53"/>
-      <c r="V43" s="54"/>
-    </row>
-    <row r="44" spans="1:22" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="67" t="s">
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="45"/>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="45"/>
+      <c r="S42" s="45"/>
+      <c r="T42" s="45"/>
+      <c r="U42" s="45"/>
+      <c r="V42" s="46"/>
+    </row>
+    <row r="43" spans="1:22" s="6" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A43" s="54"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="48"/>
+      <c r="P43" s="48"/>
+      <c r="Q43" s="48"/>
+      <c r="R43" s="48"/>
+      <c r="S43" s="48"/>
+      <c r="T43" s="48"/>
+      <c r="U43" s="48"/>
+      <c r="V43" s="49"/>
+    </row>
+    <row r="44" spans="1:22" s="6" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A44" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="67" t="s">
+      <c r="B44" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="67" t="s">
+      <c r="C44" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="67" t="s">
+      <c r="D44" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="67" t="s">
+      <c r="E44" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="F44" s="67" t="s">
+      <c r="F44" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="G44" s="67" t="s">
+      <c r="G44" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="H44" s="67" t="s">
+      <c r="H44" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="I44" s="67" t="s">
+      <c r="I44" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="J44" s="67" t="s">
+      <c r="J44" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="K44" s="67" t="s">
+      <c r="K44" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="L44" s="67" t="s">
+      <c r="L44" s="51" t="s">
         <v>9</v>
       </c>
       <c r="M44" s="38"/>
@@ -5572,91 +5618,91 @@
       <c r="R44" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="S44" s="67" t="s">
+      <c r="S44" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="T44" s="67" t="s">
+      <c r="T44" s="51" t="s">
         <v>70</v>
       </c>
       <c r="U44" s="39"/>
-      <c r="V44" s="67" t="s">
+      <c r="V44" s="51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:22" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="67" t="s">
+    <row r="45" spans="1:22" s="6" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A45" s="50"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="51" t="s">
         <v>73</v>
       </c>
       <c r="M45" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="N45" s="67" t="s">
+      <c r="N45" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="O45" s="67" t="s">
+      <c r="O45" s="51" t="s">
         <v>75</v>
       </c>
       <c r="P45" s="15" t="s">
         <v>76</v>
       </c>
       <c r="Q45" s="79"/>
-      <c r="R45" s="74"/>
-      <c r="S45" s="40"/>
-      <c r="T45" s="67" t="s">
+      <c r="R45" s="91"/>
+      <c r="S45" s="50"/>
+      <c r="T45" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="U45" s="67" t="s">
+      <c r="U45" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="V45" s="40"/>
-    </row>
-    <row r="46" spans="1:22" s="6" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="67"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="41"/>
+      <c r="V45" s="50"/>
+    </row>
+    <row r="46" spans="1:22" s="6" customFormat="1" ht="48.75" customHeight="1">
+      <c r="A46" s="51"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
       <c r="M46" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="N46" s="41"/>
-      <c r="O46" s="41"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="40"/>
       <c r="P46" s="19" t="s">
         <v>155</v>
       </c>
       <c r="Q46" s="80"/>
-      <c r="R46" s="89"/>
-      <c r="S46" s="41"/>
-      <c r="T46" s="41"/>
-      <c r="U46" s="41"/>
-      <c r="V46" s="41"/>
-    </row>
-    <row r="47" spans="1:22" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R46" s="92"/>
+      <c r="S46" s="40"/>
+      <c r="T46" s="40"/>
+      <c r="U46" s="40"/>
+      <c r="V46" s="40"/>
+    </row>
+    <row r="47" spans="1:22" s="6" customFormat="1" ht="23.25" customHeight="1">
       <c r="A47" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="72" t="s">
+      <c r="B47" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="67" t="s">
+      <c r="C47" s="51" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="38"/>
@@ -5665,27 +5711,27 @@
       <c r="G47" s="38"/>
       <c r="H47" s="38"/>
       <c r="I47" s="39"/>
-      <c r="J47" s="64" t="s">
+      <c r="J47" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="K47" s="92"/>
-      <c r="L47" s="92"/>
-      <c r="M47" s="92"/>
-      <c r="N47" s="92"/>
-      <c r="O47" s="92"/>
-      <c r="P47" s="92"/>
-      <c r="Q47" s="92"/>
-      <c r="R47" s="92"/>
-      <c r="S47" s="82"/>
-      <c r="T47" s="93" t="s">
+      <c r="K47" s="95"/>
+      <c r="L47" s="95"/>
+      <c r="M47" s="95"/>
+      <c r="N47" s="95"/>
+      <c r="O47" s="95"/>
+      <c r="P47" s="95"/>
+      <c r="Q47" s="95"/>
+      <c r="R47" s="95"/>
+      <c r="S47" s="96"/>
+      <c r="T47" s="87" t="s">
         <v>156</v>
       </c>
-      <c r="U47" s="94"/>
+      <c r="U47" s="89"/>
       <c r="V47" s="15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:22" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" s="6" customFormat="1" ht="23.25" customHeight="1">
       <c r="A48" s="15" t="s">
         <v>20</v>
       </c>
@@ -5753,145 +5799,145 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:19" s="6" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" s="6" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="Q49" s="18"/>
       <c r="R49" s="18"/>
     </row>
-    <row r="50" spans="1:19" s="6" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" s="6" customFormat="1" ht="2.25" customHeight="1">
       <c r="P50" s="17"/>
-      <c r="Q50" s="95" t="s">
+      <c r="Q50" s="93" t="s">
         <v>147</v>
       </c>
-      <c r="R50" s="95" t="s">
+      <c r="R50" s="93" t="s">
         <v>146</v>
       </c>
       <c r="S50" s="17"/>
     </row>
-    <row r="51" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" s="6" customFormat="1" hidden="1">
       <c r="P51" s="17"/>
-      <c r="Q51" s="96"/>
-      <c r="R51" s="96"/>
+      <c r="Q51" s="94"/>
+      <c r="R51" s="94"/>
       <c r="S51" s="17"/>
     </row>
-    <row r="52" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" s="6" customFormat="1">
       <c r="P52" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="Q52" s="96"/>
-      <c r="R52" s="96"/>
+      <c r="Q52" s="94"/>
+      <c r="R52" s="94"/>
       <c r="S52" s="12" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" s="6" customFormat="1">
       <c r="P53" s="36"/>
       <c r="Q53" s="35"/>
       <c r="R53" s="35"/>
       <c r="S53" s="36"/>
     </row>
-    <row r="54" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" s="6" customFormat="1">
       <c r="P54" s="36"/>
       <c r="Q54" s="35"/>
       <c r="R54" s="35"/>
       <c r="S54" s="36"/>
     </row>
-    <row r="56" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="46"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="47"/>
-      <c r="K56" s="47"/>
-      <c r="L56" s="47"/>
-      <c r="M56" s="47"/>
-      <c r="N56" s="47"/>
-      <c r="O56" s="47"/>
-      <c r="P56" s="47"/>
-      <c r="Q56" s="47"/>
-      <c r="R56" s="48"/>
-    </row>
-    <row r="57" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="49" t="s">
+    <row r="56" spans="1:19" s="6" customFormat="1">
+      <c r="A56" s="41"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="42"/>
+      <c r="P56" s="42"/>
+      <c r="Q56" s="42"/>
+      <c r="R56" s="43"/>
+    </row>
+    <row r="57" spans="1:19" s="6" customFormat="1">
+      <c r="A57" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="B57" s="50" t="s">
+      <c r="B57" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="C57" s="50" t="s">
+      <c r="C57" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="D57" s="50" t="s">
+      <c r="D57" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="E57" s="50" t="s">
+      <c r="E57" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="F57" s="50" t="s">
+      <c r="F57" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="G57" s="50" t="s">
+      <c r="G57" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="H57" s="50" t="s">
+      <c r="H57" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="I57" s="50" t="s">
+      <c r="I57" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="J57" s="50" t="s">
+      <c r="J57" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="K57" s="50" t="s">
+      <c r="K57" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="L57" s="50" t="s">
+      <c r="L57" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="M57" s="50" t="s">
+      <c r="M57" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="N57" s="50" t="s">
+      <c r="N57" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="O57" s="50" t="s">
+      <c r="O57" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="P57" s="50" t="s">
+      <c r="P57" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="Q57" s="50" t="s">
+      <c r="Q57" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="R57" s="51" t="s">
+      <c r="R57" s="46" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="52"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="53"/>
-      <c r="K58" s="53"/>
-      <c r="L58" s="53"/>
-      <c r="M58" s="53"/>
-      <c r="N58" s="53"/>
-      <c r="O58" s="53"/>
-      <c r="P58" s="53"/>
-      <c r="Q58" s="53"/>
-      <c r="R58" s="54"/>
-    </row>
-    <row r="59" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" s="6" customFormat="1">
+      <c r="A58" s="47"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="48"/>
+      <c r="K58" s="48"/>
+      <c r="L58" s="48"/>
+      <c r="M58" s="48"/>
+      <c r="N58" s="48"/>
+      <c r="O58" s="48"/>
+      <c r="P58" s="48"/>
+      <c r="Q58" s="48"/>
+      <c r="R58" s="49"/>
+    </row>
+    <row r="59" spans="1:19" s="6" customFormat="1">
       <c r="A59" s="37" t="s">
         <v>63</v>
       </c>
@@ -5923,13 +5969,13 @@
       <c r="Q59" s="38"/>
       <c r="R59" s="39"/>
     </row>
-    <row r="60" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
-      <c r="B60" s="40"/>
+    <row r="60" spans="1:19" s="6" customFormat="1">
+      <c r="A60" s="50"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="73" t="s">
         <v>186</v>
       </c>
-      <c r="D60" s="98"/>
+      <c r="D60" s="74"/>
       <c r="E60" s="37" t="s">
         <v>182</v>
       </c>
@@ -5939,7 +5985,7 @@
       <c r="G60" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="H60" s="98"/>
+      <c r="H60" s="74"/>
       <c r="I60" s="37" t="s">
         <v>182</v>
       </c>
@@ -5949,7 +5995,7 @@
       <c r="K60" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="L60" s="98"/>
+      <c r="L60" s="74"/>
       <c r="M60" s="37" t="s">
         <v>182</v>
       </c>
@@ -5959,7 +6005,7 @@
       <c r="O60" s="73" t="s">
         <v>186</v>
       </c>
-      <c r="P60" s="98"/>
+      <c r="P60" s="74"/>
       <c r="Q60" s="37" t="s">
         <v>182</v>
       </c>
@@ -5967,9 +6013,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="61" spans="1:19" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" s="6" customFormat="1" ht="25.5">
       <c r="A61" s="37"/>
-      <c r="B61" s="41"/>
+      <c r="B61" s="40"/>
       <c r="C61" s="22" t="s">
         <v>10</v>
       </c>
@@ -5977,7 +6023,7 @@
         <v>185</v>
       </c>
       <c r="E61" s="37"/>
-      <c r="F61" s="41"/>
+      <c r="F61" s="40"/>
       <c r="G61" s="22" t="s">
         <v>10</v>
       </c>
@@ -5985,7 +6031,7 @@
         <v>185</v>
       </c>
       <c r="I61" s="37"/>
-      <c r="J61" s="41"/>
+      <c r="J61" s="40"/>
       <c r="K61" s="22" t="s">
         <v>10</v>
       </c>
@@ -5993,17 +6039,17 @@
         <v>185</v>
       </c>
       <c r="M61" s="37"/>
-      <c r="N61" s="41"/>
+      <c r="N61" s="40"/>
       <c r="O61" s="22" t="s">
         <v>10</v>
       </c>
       <c r="P61" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="Q61" s="41"/>
-      <c r="R61" s="41"/>
-    </row>
-    <row r="62" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q61" s="40"/>
+      <c r="R61" s="40"/>
+    </row>
+    <row r="62" spans="1:19" s="6" customFormat="1">
       <c r="A62" s="22" t="s">
         <v>20</v>
       </c>
@@ -6059,140 +6105,140 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" s="6" customFormat="1"/>
+    <row r="64" spans="1:19" s="6" customFormat="1">
       <c r="C64" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="65" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" s="6" customFormat="1">
       <c r="C65" s="5"/>
     </row>
-    <row r="66" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" s="6" customFormat="1">
       <c r="C66" s="5"/>
     </row>
-    <row r="67" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="46"/>
-      <c r="B67" s="47"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="47"/>
-      <c r="I67" s="47"/>
-      <c r="J67" s="47"/>
-      <c r="K67" s="47"/>
-      <c r="L67" s="47"/>
-      <c r="M67" s="47"/>
-      <c r="N67" s="47"/>
-      <c r="O67" s="47"/>
-      <c r="P67" s="47"/>
-      <c r="Q67" s="47"/>
-      <c r="R67" s="47"/>
-      <c r="S67" s="47"/>
-      <c r="T67" s="47"/>
-      <c r="U67" s="47"/>
-      <c r="V67" s="47"/>
-      <c r="W67" s="48"/>
-    </row>
-    <row r="68" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="49" t="s">
+    <row r="67" spans="1:25" s="6" customFormat="1">
+      <c r="A67" s="41"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="42"/>
+      <c r="N67" s="42"/>
+      <c r="O67" s="42"/>
+      <c r="P67" s="42"/>
+      <c r="Q67" s="42"/>
+      <c r="R67" s="42"/>
+      <c r="S67" s="42"/>
+      <c r="T67" s="42"/>
+      <c r="U67" s="42"/>
+      <c r="V67" s="42"/>
+      <c r="W67" s="43"/>
+    </row>
+    <row r="68" spans="1:25" s="6" customFormat="1">
+      <c r="A68" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="B68" s="50" t="s">
+      <c r="B68" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="C68" s="50" t="s">
+      <c r="C68" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="D68" s="50" t="s">
+      <c r="D68" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="E68" s="50" t="s">
+      <c r="E68" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="F68" s="50" t="s">
+      <c r="F68" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="G68" s="50" t="s">
+      <c r="G68" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="H68" s="50" t="s">
+      <c r="H68" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="I68" s="50" t="s">
+      <c r="I68" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="J68" s="50" t="s">
+      <c r="J68" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="K68" s="50" t="s">
+      <c r="K68" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="L68" s="50" t="s">
+      <c r="L68" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="M68" s="50" t="s">
+      <c r="M68" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="N68" s="50" t="s">
+      <c r="N68" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="O68" s="50" t="s">
+      <c r="O68" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="P68" s="50" t="s">
+      <c r="P68" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="Q68" s="50" t="s">
+      <c r="Q68" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="R68" s="50" t="s">
+      <c r="R68" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="S68" s="50" t="s">
+      <c r="S68" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="T68" s="50" t="s">
+      <c r="T68" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="U68" s="50" t="s">
+      <c r="U68" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="V68" s="50" t="s">
+      <c r="V68" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="W68" s="51" t="s">
+      <c r="W68" s="46" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="69" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="52"/>
-      <c r="B69" s="53"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="53"/>
-      <c r="J69" s="53"/>
-      <c r="K69" s="53"/>
-      <c r="L69" s="53"/>
-      <c r="M69" s="53"/>
-      <c r="N69" s="53"/>
-      <c r="O69" s="53"/>
-      <c r="P69" s="53"/>
-      <c r="Q69" s="53"/>
-      <c r="R69" s="53"/>
-      <c r="S69" s="53"/>
-      <c r="T69" s="53"/>
-      <c r="U69" s="53"/>
-      <c r="V69" s="53"/>
-      <c r="W69" s="54"/>
-    </row>
-    <row r="70" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" s="6" customFormat="1">
+      <c r="A69" s="47"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="48"/>
+      <c r="K69" s="48"/>
+      <c r="L69" s="48"/>
+      <c r="M69" s="48"/>
+      <c r="N69" s="48"/>
+      <c r="O69" s="48"/>
+      <c r="P69" s="48"/>
+      <c r="Q69" s="48"/>
+      <c r="R69" s="48"/>
+      <c r="S69" s="48"/>
+      <c r="T69" s="48"/>
+      <c r="U69" s="48"/>
+      <c r="V69" s="48"/>
+      <c r="W69" s="49"/>
+    </row>
+    <row r="70" spans="1:25" s="6" customFormat="1">
       <c r="A70" s="37" t="s">
         <v>63</v>
       </c>
@@ -6239,18 +6285,18 @@
       <c r="V70" s="38"/>
       <c r="W70" s="39"/>
     </row>
-    <row r="71" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="41"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
+    <row r="71" spans="1:25" s="6" customFormat="1">
+      <c r="A71" s="40"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="40"/>
       <c r="H71" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="I71" s="98"/>
+      <c r="I71" s="74"/>
       <c r="J71" s="37" t="s">
         <v>182</v>
       </c>
@@ -6260,7 +6306,7 @@
       <c r="L71" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="M71" s="98"/>
+      <c r="M71" s="74"/>
       <c r="N71" s="37" t="s">
         <v>182</v>
       </c>
@@ -6270,7 +6316,7 @@
       <c r="P71" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="Q71" s="98"/>
+      <c r="Q71" s="74"/>
       <c r="R71" s="37" t="s">
         <v>182</v>
       </c>
@@ -6280,7 +6326,7 @@
       <c r="T71" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="U71" s="98"/>
+      <c r="U71" s="74"/>
       <c r="V71" s="37" t="s">
         <v>182</v>
       </c>
@@ -6288,7 +6334,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="72" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" s="6" customFormat="1">
       <c r="A72" s="23" t="s">
         <v>38</v>
       </c>
@@ -6317,7 +6363,7 @@
         <v>185</v>
       </c>
       <c r="J72" s="37"/>
-      <c r="K72" s="41"/>
+      <c r="K72" s="40"/>
       <c r="L72" s="22" t="s">
         <v>10</v>
       </c>
@@ -6325,7 +6371,7 @@
         <v>185</v>
       </c>
       <c r="N72" s="37"/>
-      <c r="O72" s="41"/>
+      <c r="O72" s="40"/>
       <c r="P72" s="22" t="s">
         <v>10</v>
       </c>
@@ -6333,17 +6379,17 @@
         <v>185</v>
       </c>
       <c r="R72" s="37"/>
-      <c r="S72" s="41"/>
+      <c r="S72" s="40"/>
       <c r="T72" s="22" t="s">
         <v>10</v>
       </c>
       <c r="U72" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="V72" s="41"/>
-      <c r="W72" s="41"/>
-    </row>
-    <row r="73" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V72" s="40"/>
+      <c r="W72" s="40"/>
+    </row>
+    <row r="73" spans="1:25" s="6" customFormat="1">
       <c r="A73" s="22" t="s">
         <v>20</v>
       </c>
@@ -6414,82 +6460,82 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" s="6" customFormat="1"/>
+    <row r="75" spans="1:25" s="6" customFormat="1">
       <c r="I75" s="6" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="76" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" s="6" customFormat="1">
       <c r="C76" s="5"/>
     </row>
-    <row r="79" spans="1:25" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="49" t="s">
+    <row r="79" spans="1:25" s="6" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A79" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="B79" s="50"/>
-      <c r="C79" s="50"/>
-      <c r="D79" s="50"/>
-      <c r="E79" s="50"/>
-      <c r="F79" s="50"/>
-      <c r="G79" s="50"/>
-      <c r="H79" s="50"/>
-      <c r="I79" s="50"/>
-      <c r="J79" s="50"/>
-      <c r="K79" s="50"/>
-      <c r="L79" s="50"/>
-      <c r="M79" s="50"/>
-      <c r="N79" s="50"/>
-      <c r="O79" s="50"/>
-      <c r="P79" s="50"/>
-      <c r="Q79" s="50"/>
-      <c r="R79" s="50"/>
-      <c r="S79" s="50"/>
-      <c r="T79" s="50"/>
-      <c r="U79" s="50"/>
-      <c r="V79" s="50"/>
-      <c r="W79" s="50"/>
-      <c r="X79" s="50"/>
-      <c r="Y79" s="51"/>
-    </row>
-    <row r="80" spans="1:25" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="69"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="53"/>
-      <c r="D80" s="53"/>
-      <c r="E80" s="53"/>
-      <c r="F80" s="53"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="53"/>
-      <c r="K80" s="53"/>
-      <c r="L80" s="53"/>
-      <c r="M80" s="53"/>
-      <c r="N80" s="53"/>
-      <c r="O80" s="53"/>
-      <c r="P80" s="53"/>
-      <c r="Q80" s="53"/>
-      <c r="R80" s="53"/>
-      <c r="S80" s="53"/>
-      <c r="T80" s="53"/>
-      <c r="U80" s="53"/>
-      <c r="V80" s="53"/>
-      <c r="W80" s="53"/>
-      <c r="X80" s="53"/>
-      <c r="Y80" s="54"/>
-    </row>
-    <row r="81" spans="1:25" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="67" t="s">
+      <c r="B79" s="45"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="45"/>
+      <c r="G79" s="45"/>
+      <c r="H79" s="45"/>
+      <c r="I79" s="45"/>
+      <c r="J79" s="45"/>
+      <c r="K79" s="45"/>
+      <c r="L79" s="45"/>
+      <c r="M79" s="45"/>
+      <c r="N79" s="45"/>
+      <c r="O79" s="45"/>
+      <c r="P79" s="45"/>
+      <c r="Q79" s="45"/>
+      <c r="R79" s="45"/>
+      <c r="S79" s="45"/>
+      <c r="T79" s="45"/>
+      <c r="U79" s="45"/>
+      <c r="V79" s="45"/>
+      <c r="W79" s="45"/>
+      <c r="X79" s="45"/>
+      <c r="Y79" s="46"/>
+    </row>
+    <row r="80" spans="1:25" s="6" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A80" s="54"/>
+      <c r="B80" s="48"/>
+      <c r="C80" s="48"/>
+      <c r="D80" s="48"/>
+      <c r="E80" s="48"/>
+      <c r="F80" s="48"/>
+      <c r="G80" s="48"/>
+      <c r="H80" s="48"/>
+      <c r="I80" s="48"/>
+      <c r="J80" s="48"/>
+      <c r="K80" s="48"/>
+      <c r="L80" s="48"/>
+      <c r="M80" s="48"/>
+      <c r="N80" s="48"/>
+      <c r="O80" s="48"/>
+      <c r="P80" s="48"/>
+      <c r="Q80" s="48"/>
+      <c r="R80" s="48"/>
+      <c r="S80" s="48"/>
+      <c r="T80" s="48"/>
+      <c r="U80" s="48"/>
+      <c r="V80" s="48"/>
+      <c r="W80" s="48"/>
+      <c r="X80" s="48"/>
+      <c r="Y80" s="49"/>
+    </row>
+    <row r="81" spans="1:25" s="6" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A81" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B81" s="67" t="s">
+      <c r="B81" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="67" t="s">
+      <c r="C81" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="D81" s="67" t="s">
+      <c r="D81" s="51" t="s">
         <v>88</v>
       </c>
       <c r="E81" s="15" t="s">
@@ -6504,7 +6550,7 @@
       <c r="H81" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I81" s="67" t="s">
+      <c r="I81" s="51" t="s">
         <v>89</v>
       </c>
       <c r="J81" s="37" t="s">
@@ -6513,25 +6559,25 @@
       <c r="K81" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="L81" s="67" t="s">
+      <c r="L81" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="M81" s="67" t="s">
+      <c r="M81" s="51" t="s">
         <v>93</v>
       </c>
       <c r="N81" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="O81" s="67" t="s">
+      <c r="O81" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="P81" s="67" t="s">
+      <c r="P81" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="Q81" s="67" t="s">
+      <c r="Q81" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="R81" s="67" t="s">
+      <c r="R81" s="51" t="s">
         <v>9</v>
       </c>
       <c r="S81" s="38"/>
@@ -6541,95 +6587,95 @@
       <c r="W81" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="X81" s="67" t="s">
+      <c r="X81" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="Y81" s="67" t="s">
+      <c r="Y81" s="51" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:25" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
-      <c r="B82" s="40"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="40"/>
-      <c r="E82" s="67" t="s">
+    <row r="82" spans="1:25" s="6" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A82" s="50"/>
+      <c r="B82" s="50"/>
+      <c r="C82" s="50"/>
+      <c r="D82" s="50"/>
+      <c r="E82" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="F82" s="67" t="s">
+      <c r="F82" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="G82" s="67" t="s">
+      <c r="G82" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="H82" s="67" t="s">
+      <c r="H82" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="I82" s="40"/>
-      <c r="J82" s="90"/>
-      <c r="K82" s="74"/>
-      <c r="L82" s="40"/>
-      <c r="M82" s="40"/>
-      <c r="N82" s="67" t="s">
+      <c r="I82" s="50"/>
+      <c r="J82" s="97"/>
+      <c r="K82" s="91"/>
+      <c r="L82" s="50"/>
+      <c r="M82" s="50"/>
+      <c r="N82" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="O82" s="40"/>
-      <c r="P82" s="40"/>
-      <c r="Q82" s="40"/>
-      <c r="R82" s="67" t="s">
+      <c r="O82" s="50"/>
+      <c r="P82" s="50"/>
+      <c r="Q82" s="50"/>
+      <c r="R82" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="S82" s="67" t="s">
+      <c r="S82" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="T82" s="67" t="s">
+      <c r="T82" s="51" t="s">
         <v>107</v>
       </c>
       <c r="U82" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="V82" s="67" t="s">
+      <c r="V82" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="W82" s="74"/>
-      <c r="X82" s="40"/>
-      <c r="Y82" s="40"/>
-    </row>
-    <row r="83" spans="1:25" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="41"/>
-      <c r="B83" s="41"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="41"/>
-      <c r="E83" s="41"/>
-      <c r="F83" s="41"/>
-      <c r="G83" s="41"/>
-      <c r="H83" s="41"/>
-      <c r="I83" s="41"/>
-      <c r="J83" s="91"/>
-      <c r="K83" s="89"/>
-      <c r="L83" s="41"/>
-      <c r="M83" s="41"/>
-      <c r="N83" s="41"/>
-      <c r="O83" s="41"/>
-      <c r="P83" s="41"/>
-      <c r="Q83" s="41"/>
-      <c r="R83" s="41"/>
-      <c r="S83" s="41"/>
-      <c r="T83" s="41"/>
-      <c r="U83" s="89"/>
-      <c r="V83" s="41"/>
-      <c r="W83" s="89"/>
-      <c r="X83" s="41"/>
-      <c r="Y83" s="41"/>
-    </row>
-    <row r="84" spans="1:25" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W82" s="91"/>
+      <c r="X82" s="50"/>
+      <c r="Y82" s="50"/>
+    </row>
+    <row r="83" spans="1:25" s="6" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A83" s="40"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="40"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="40"/>
+      <c r="J83" s="98"/>
+      <c r="K83" s="92"/>
+      <c r="L83" s="40"/>
+      <c r="M83" s="40"/>
+      <c r="N83" s="40"/>
+      <c r="O83" s="40"/>
+      <c r="P83" s="40"/>
+      <c r="Q83" s="40"/>
+      <c r="R83" s="40"/>
+      <c r="S83" s="40"/>
+      <c r="T83" s="40"/>
+      <c r="U83" s="92"/>
+      <c r="V83" s="40"/>
+      <c r="W83" s="92"/>
+      <c r="X83" s="40"/>
+      <c r="Y83" s="40"/>
+    </row>
+    <row r="84" spans="1:25" s="6" customFormat="1" ht="29.25" customHeight="1">
       <c r="A84" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B84" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C84" s="67" t="s">
+      <c r="C84" s="51" t="s">
         <v>81</v>
       </c>
       <c r="D84" s="38"/>
@@ -6652,12 +6698,12 @@
       <c r="U84" s="38"/>
       <c r="V84" s="38"/>
       <c r="W84" s="39"/>
-      <c r="X84" s="67" t="s">
+      <c r="X84" s="51" t="s">
         <v>82</v>
       </c>
       <c r="Y84" s="39"/>
     </row>
-    <row r="85" spans="1:25" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" s="6" customFormat="1" ht="29.25" customHeight="1">
       <c r="A85" s="15" t="s">
         <v>20</v>
       </c>
@@ -6734,7 +6780,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:25" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" s="6" customFormat="1" ht="45" customHeight="1">
       <c r="J86" s="12" t="s">
         <v>153</v>
       </c>
@@ -6779,60 +6825,60 @@
       </c>
       <c r="Y86" s="25"/>
     </row>
-    <row r="90" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="81"/>
-      <c r="B90" s="47"/>
-      <c r="C90" s="47"/>
-      <c r="D90" s="47"/>
-      <c r="E90" s="47"/>
-      <c r="F90" s="47"/>
-      <c r="G90" s="47"/>
-      <c r="H90" s="47"/>
-      <c r="I90" s="47"/>
-      <c r="J90" s="47"/>
-      <c r="K90" s="47"/>
-      <c r="L90" s="47"/>
-      <c r="M90" s="47"/>
-      <c r="N90" s="82"/>
-    </row>
-    <row r="91" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="83" t="s">
+    <row r="90" spans="1:25" s="6" customFormat="1">
+      <c r="A90" s="99"/>
+      <c r="B90" s="42"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="42"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="42"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="42"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="42"/>
+      <c r="K90" s="42"/>
+      <c r="L90" s="42"/>
+      <c r="M90" s="42"/>
+      <c r="N90" s="96"/>
+    </row>
+    <row r="91" spans="1:25" s="6" customFormat="1">
+      <c r="A91" s="100" t="s">
         <v>120</v>
       </c>
-      <c r="B91" s="84"/>
-      <c r="C91" s="84"/>
-      <c r="D91" s="84"/>
-      <c r="E91" s="84"/>
-      <c r="F91" s="84"/>
-      <c r="G91" s="84"/>
-      <c r="H91" s="84"/>
-      <c r="I91" s="84"/>
-      <c r="J91" s="84"/>
-      <c r="K91" s="84"/>
-      <c r="L91" s="84"/>
-      <c r="M91" s="84"/>
-      <c r="N91" s="82"/>
-    </row>
-    <row r="92" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="85" t="s">
+      <c r="B91" s="101"/>
+      <c r="C91" s="101"/>
+      <c r="D91" s="101"/>
+      <c r="E91" s="101"/>
+      <c r="F91" s="101"/>
+      <c r="G91" s="101"/>
+      <c r="H91" s="101"/>
+      <c r="I91" s="101"/>
+      <c r="J91" s="101"/>
+      <c r="K91" s="101"/>
+      <c r="L91" s="101"/>
+      <c r="M91" s="101"/>
+      <c r="N91" s="96"/>
+    </row>
+    <row r="92" spans="1:25" s="6" customFormat="1">
+      <c r="A92" s="102" t="s">
         <v>121</v>
       </c>
-      <c r="B92" s="86"/>
-      <c r="C92" s="86"/>
-      <c r="D92" s="86"/>
-      <c r="E92" s="86"/>
-      <c r="F92" s="86"/>
-      <c r="G92" s="86"/>
-      <c r="H92" s="86"/>
-      <c r="I92" s="86"/>
-      <c r="J92" s="86"/>
-      <c r="K92" s="86"/>
-      <c r="L92" s="86"/>
-      <c r="M92" s="87"/>
-      <c r="N92" s="88"/>
-    </row>
-    <row r="93" spans="1:25" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="43" t="s">
+      <c r="B92" s="103"/>
+      <c r="C92" s="103"/>
+      <c r="D92" s="103"/>
+      <c r="E92" s="103"/>
+      <c r="F92" s="103"/>
+      <c r="G92" s="103"/>
+      <c r="H92" s="103"/>
+      <c r="I92" s="103"/>
+      <c r="J92" s="103"/>
+      <c r="K92" s="103"/>
+      <c r="L92" s="103"/>
+      <c r="M92" s="104"/>
+      <c r="N92" s="105"/>
+    </row>
+    <row r="93" spans="1:25" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A93" s="72" t="s">
         <v>38</v>
       </c>
       <c r="B93" s="37" t="s">
@@ -6861,10 +6907,10 @@
         <v>143</v>
       </c>
     </row>
-    <row r="94" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
-      <c r="B94" s="40"/>
-      <c r="C94" s="40"/>
+    <row r="94" spans="1:25" s="6" customFormat="1">
+      <c r="A94" s="50"/>
+      <c r="B94" s="50"/>
+      <c r="C94" s="50"/>
       <c r="D94" s="37" t="s">
         <v>8</v>
       </c>
@@ -6889,11 +6935,11 @@
       <c r="M94" s="39"/>
       <c r="N94" s="79"/>
     </row>
-    <row r="95" spans="1:25" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" s="6" customFormat="1" ht="51">
       <c r="A95" s="37"/>
-      <c r="B95" s="41"/>
-      <c r="C95" s="41"/>
-      <c r="D95" s="41"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="40"/>
       <c r="E95" s="13" t="s">
         <v>11</v>
       </c>
@@ -6919,7 +6965,7 @@
       </c>
       <c r="N95" s="80"/>
     </row>
-    <row r="96" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" s="6" customFormat="1">
       <c r="A96" s="14" t="s">
         <v>38</v>
       </c>
@@ -6945,7 +6991,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="97" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" s="6" customFormat="1">
       <c r="A97" s="13" t="s">
         <v>20</v>
       </c>
@@ -6989,68 +7035,73 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" s="6" customFormat="1">
       <c r="N98" s="12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="102" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="46"/>
-      <c r="B102" s="47"/>
-      <c r="C102" s="47"/>
-      <c r="D102" s="47"/>
-      <c r="E102" s="47"/>
-      <c r="F102" s="47"/>
-      <c r="G102" s="47"/>
-      <c r="H102" s="47"/>
-      <c r="I102" s="47"/>
-      <c r="J102" s="47"/>
-      <c r="K102" s="47"/>
-      <c r="L102" s="47"/>
-      <c r="M102" s="47"/>
-      <c r="N102" s="47"/>
-      <c r="O102" s="48"/>
-    </row>
-    <row r="103" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="49" t="s">
+    <row r="99" spans="1:15">
+      <c r="N99" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" s="6" customFormat="1">
+      <c r="A102" s="41"/>
+      <c r="B102" s="42"/>
+      <c r="C102" s="42"/>
+      <c r="D102" s="42"/>
+      <c r="E102" s="42"/>
+      <c r="F102" s="42"/>
+      <c r="G102" s="42"/>
+      <c r="H102" s="42"/>
+      <c r="I102" s="42"/>
+      <c r="J102" s="42"/>
+      <c r="K102" s="42"/>
+      <c r="L102" s="42"/>
+      <c r="M102" s="42"/>
+      <c r="N102" s="42"/>
+      <c r="O102" s="43"/>
+    </row>
+    <row r="103" spans="1:15" s="6" customFormat="1">
+      <c r="A103" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="B103" s="50"/>
-      <c r="C103" s="50"/>
-      <c r="D103" s="50"/>
-      <c r="E103" s="50"/>
-      <c r="F103" s="50"/>
-      <c r="G103" s="50"/>
-      <c r="H103" s="50"/>
-      <c r="I103" s="50"/>
-      <c r="J103" s="50"/>
-      <c r="K103" s="50"/>
-      <c r="L103" s="50"/>
-      <c r="M103" s="50"/>
-      <c r="N103" s="50"/>
-      <c r="O103" s="51"/>
-    </row>
-    <row r="104" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="52" t="s">
+      <c r="B103" s="45"/>
+      <c r="C103" s="45"/>
+      <c r="D103" s="45"/>
+      <c r="E103" s="45"/>
+      <c r="F103" s="45"/>
+      <c r="G103" s="45"/>
+      <c r="H103" s="45"/>
+      <c r="I103" s="45"/>
+      <c r="J103" s="45"/>
+      <c r="K103" s="45"/>
+      <c r="L103" s="45"/>
+      <c r="M103" s="45"/>
+      <c r="N103" s="45"/>
+      <c r="O103" s="46"/>
+    </row>
+    <row r="104" spans="1:15" s="6" customFormat="1">
+      <c r="A104" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="B104" s="53"/>
-      <c r="C104" s="53"/>
-      <c r="D104" s="53"/>
-      <c r="E104" s="53"/>
-      <c r="F104" s="53"/>
-      <c r="G104" s="53"/>
-      <c r="H104" s="53"/>
-      <c r="I104" s="53"/>
-      <c r="J104" s="53"/>
-      <c r="K104" s="53"/>
-      <c r="L104" s="53"/>
-      <c r="M104" s="53"/>
-      <c r="N104" s="53"/>
-      <c r="O104" s="54"/>
-    </row>
-    <row r="105" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="43" t="s">
+      <c r="B104" s="48"/>
+      <c r="C104" s="48"/>
+      <c r="D104" s="48"/>
+      <c r="E104" s="48"/>
+      <c r="F104" s="48"/>
+      <c r="G104" s="48"/>
+      <c r="H104" s="48"/>
+      <c r="I104" s="48"/>
+      <c r="J104" s="48"/>
+      <c r="K104" s="48"/>
+      <c r="L104" s="48"/>
+      <c r="M104" s="48"/>
+      <c r="N104" s="48"/>
+      <c r="O104" s="49"/>
+    </row>
+    <row r="105" spans="1:15" s="6" customFormat="1">
+      <c r="A105" s="72" t="s">
         <v>38</v>
       </c>
       <c r="B105" s="37" t="s">
@@ -7069,7 +7120,7 @@
       <c r="I105" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="J105" s="75" t="s">
+      <c r="J105" s="106" t="s">
         <v>148</v>
       </c>
       <c r="K105" s="73" t="s">
@@ -7086,10 +7137,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="106" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="44"/>
-      <c r="B106" s="40"/>
-      <c r="C106" s="40"/>
+    <row r="106" spans="1:15" s="6" customFormat="1">
+      <c r="A106" s="58"/>
+      <c r="B106" s="50"/>
+      <c r="C106" s="50"/>
       <c r="D106" s="37" t="s">
         <v>66</v>
       </c>
@@ -7108,37 +7159,37 @@
       <c r="I106" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="J106" s="76"/>
-      <c r="K106" s="74"/>
-      <c r="L106" s="40"/>
-      <c r="M106" s="41"/>
-      <c r="N106" s="42"/>
-      <c r="O106" s="40"/>
-    </row>
-    <row r="107" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J106" s="107"/>
+      <c r="K106" s="91"/>
+      <c r="L106" s="50"/>
+      <c r="M106" s="40"/>
+      <c r="N106" s="61"/>
+      <c r="O106" s="50"/>
+    </row>
+    <row r="107" spans="1:15" s="6" customFormat="1">
       <c r="A107" s="37"/>
-      <c r="B107" s="41"/>
-      <c r="C107" s="41"/>
-      <c r="D107" s="41"/>
-      <c r="E107" s="41"/>
-      <c r="F107" s="41"/>
-      <c r="G107" s="41"/>
-      <c r="H107" s="41"/>
+      <c r="B107" s="40"/>
+      <c r="C107" s="40"/>
+      <c r="D107" s="40"/>
+      <c r="E107" s="40"/>
+      <c r="F107" s="40"/>
+      <c r="G107" s="40"/>
+      <c r="H107" s="40"/>
       <c r="I107" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="J107" s="77"/>
+      <c r="J107" s="108"/>
       <c r="K107" s="73"/>
-      <c r="L107" s="41"/>
+      <c r="L107" s="40"/>
       <c r="M107" s="13" t="s">
         <v>126</v>
       </c>
       <c r="N107" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="O107" s="41"/>
-    </row>
-    <row r="108" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O107" s="40"/>
+    </row>
+    <row r="108" spans="1:15" s="6" customFormat="1">
       <c r="A108" s="14" t="s">
         <v>38</v>
       </c>
@@ -7167,7 +7218,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="109" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" s="6" customFormat="1">
       <c r="A109" s="13" t="s">
         <v>20</v>
       </c>
@@ -7214,7 +7265,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" s="6" customFormat="1">
       <c r="I110" s="33" t="s">
         <v>153</v>
       </c>
@@ -7228,93 +7279,93 @@
         <v>153</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="68"/>
-      <c r="B115" s="47"/>
-      <c r="C115" s="47"/>
-      <c r="D115" s="47"/>
-      <c r="E115" s="47"/>
-      <c r="F115" s="47"/>
-      <c r="G115" s="47"/>
-      <c r="H115" s="47"/>
-      <c r="I115" s="48"/>
-    </row>
-    <row r="116" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="49" t="s">
+    <row r="115" spans="1:9" s="6" customFormat="1">
+      <c r="A115" s="52"/>
+      <c r="B115" s="42"/>
+      <c r="C115" s="42"/>
+      <c r="D115" s="42"/>
+      <c r="E115" s="42"/>
+      <c r="F115" s="42"/>
+      <c r="G115" s="42"/>
+      <c r="H115" s="42"/>
+      <c r="I115" s="43"/>
+    </row>
+    <row r="116" spans="1:9" s="6" customFormat="1">
+      <c r="A116" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="B116" s="50"/>
-      <c r="C116" s="50"/>
-      <c r="D116" s="50"/>
-      <c r="E116" s="50"/>
-      <c r="F116" s="50"/>
-      <c r="G116" s="50"/>
-      <c r="H116" s="50"/>
-      <c r="I116" s="51"/>
-    </row>
-    <row r="117" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="69"/>
-      <c r="B117" s="53"/>
-      <c r="C117" s="53"/>
-      <c r="D117" s="53"/>
-      <c r="E117" s="53"/>
-      <c r="F117" s="53"/>
-      <c r="G117" s="53"/>
-      <c r="H117" s="53"/>
-      <c r="I117" s="54"/>
-    </row>
-    <row r="118" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="72" t="s">
+      <c r="B116" s="45"/>
+      <c r="C116" s="45"/>
+      <c r="D116" s="45"/>
+      <c r="E116" s="45"/>
+      <c r="F116" s="45"/>
+      <c r="G116" s="45"/>
+      <c r="H116" s="45"/>
+      <c r="I116" s="46"/>
+    </row>
+    <row r="117" spans="1:9" s="6" customFormat="1">
+      <c r="A117" s="54"/>
+      <c r="B117" s="48"/>
+      <c r="C117" s="48"/>
+      <c r="D117" s="48"/>
+      <c r="E117" s="48"/>
+      <c r="F117" s="48"/>
+      <c r="G117" s="48"/>
+      <c r="H117" s="48"/>
+      <c r="I117" s="49"/>
+    </row>
+    <row r="118" spans="1:9" s="6" customFormat="1">
+      <c r="A118" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="B118" s="67" t="s">
+      <c r="B118" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C118" s="67" t="s">
+      <c r="C118" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="D118" s="67" t="s">
+      <c r="D118" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="E118" s="103" t="s">
+      <c r="E118" s="75" t="s">
         <v>76</v>
       </c>
       <c r="F118" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="G118" s="106" t="s">
+      <c r="G118" s="81" t="s">
         <v>170</v>
       </c>
-      <c r="H118" s="67" t="s">
+      <c r="H118" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="I118" s="67" t="s">
+      <c r="I118" s="51" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="40"/>
-      <c r="B119" s="40"/>
-      <c r="C119" s="40"/>
-      <c r="D119" s="40"/>
-      <c r="E119" s="104"/>
+    <row r="119" spans="1:9" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A119" s="50"/>
+      <c r="B119" s="50"/>
+      <c r="C119" s="50"/>
+      <c r="D119" s="50"/>
+      <c r="E119" s="76"/>
       <c r="F119" s="79"/>
-      <c r="G119" s="107"/>
-      <c r="H119" s="40"/>
-      <c r="I119" s="40"/>
-    </row>
-    <row r="120" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="41"/>
-      <c r="B120" s="41"/>
-      <c r="C120" s="41"/>
-      <c r="D120" s="41"/>
-      <c r="E120" s="105"/>
+      <c r="G119" s="82"/>
+      <c r="H119" s="50"/>
+      <c r="I119" s="50"/>
+    </row>
+    <row r="120" spans="1:9" s="6" customFormat="1">
+      <c r="A120" s="40"/>
+      <c r="B120" s="40"/>
+      <c r="C120" s="40"/>
+      <c r="D120" s="40"/>
+      <c r="E120" s="77"/>
       <c r="F120" s="80"/>
-      <c r="G120" s="108"/>
-      <c r="H120" s="41"/>
-      <c r="I120" s="41"/>
-    </row>
-    <row r="121" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G120" s="83"/>
+      <c r="H120" s="40"/>
+      <c r="I120" s="40"/>
+    </row>
+    <row r="121" spans="1:9" s="6" customFormat="1">
       <c r="A121" s="21" t="s">
         <v>38</v>
       </c>
@@ -7324,7 +7375,7 @@
       <c r="C121" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D121" s="67" t="s">
+      <c r="D121" s="51" t="s">
         <v>81</v>
       </c>
       <c r="E121" s="38"/>
@@ -7337,7 +7388,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" s="6" customFormat="1">
       <c r="A122" s="20" t="s">
         <v>20</v>
       </c>
@@ -7366,7 +7417,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" s="6" customFormat="1">
       <c r="A123" s="6" t="s">
         <v>172</v>
       </c>
@@ -7379,7 +7430,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" s="6" customFormat="1">
       <c r="A124" s="5" t="s">
         <v>173</v>
       </c>
@@ -7387,7 +7438,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" s="6" customFormat="1">
       <c r="A125" s="5" t="s">
         <v>174</v>
       </c>
@@ -7399,6 +7450,210 @@
     </row>
   </sheetData>
   <mergeCells count="228">
+    <mergeCell ref="D108:L108"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="K105:K107"/>
+    <mergeCell ref="L105:L107"/>
+    <mergeCell ref="M105:N106"/>
+    <mergeCell ref="O105:O107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D105:H105"/>
+    <mergeCell ref="J105:J107"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:M96"/>
+    <mergeCell ref="A102:O102"/>
+    <mergeCell ref="A103:O103"/>
+    <mergeCell ref="A104:O104"/>
+    <mergeCell ref="K93:M93"/>
+    <mergeCell ref="N93:N95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="K94:K95"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="D93:G93"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="C84:W84"/>
+    <mergeCell ref="X84:Y84"/>
+    <mergeCell ref="A90:N90"/>
+    <mergeCell ref="A91:N91"/>
+    <mergeCell ref="A92:N92"/>
+    <mergeCell ref="X81:X83"/>
+    <mergeCell ref="Y81:Y83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="N82:N83"/>
+    <mergeCell ref="R82:R83"/>
+    <mergeCell ref="S82:S83"/>
+    <mergeCell ref="T82:T83"/>
+    <mergeCell ref="U82:U83"/>
+    <mergeCell ref="V82:V83"/>
+    <mergeCell ref="A79:Y79"/>
+    <mergeCell ref="A80:Y80"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="I81:I83"/>
+    <mergeCell ref="J81:J83"/>
+    <mergeCell ref="K81:K83"/>
+    <mergeCell ref="L81:L83"/>
+    <mergeCell ref="M81:M83"/>
+    <mergeCell ref="O81:O83"/>
+    <mergeCell ref="P81:P83"/>
+    <mergeCell ref="Q81:Q83"/>
+    <mergeCell ref="R81:V81"/>
+    <mergeCell ref="W81:W83"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="J47:S47"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="Q50:Q52"/>
+    <mergeCell ref="R50:R52"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="T45:T46"/>
+    <mergeCell ref="U45:U46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="K44:K46"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="A43:V43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="Q44:Q46"/>
+    <mergeCell ref="R44:R46"/>
+    <mergeCell ref="S44:S46"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:V46"/>
+    <mergeCell ref="A41:V41"/>
+    <mergeCell ref="A42:V42"/>
+    <mergeCell ref="D33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="K35:K37"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="A27:R27"/>
+    <mergeCell ref="A28:R28"/>
+    <mergeCell ref="A29:R29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:O32"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:R32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="A15:U15"/>
+    <mergeCell ref="A16:U16"/>
+    <mergeCell ref="A17:U17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="A21:N21"/>
+    <mergeCell ref="O21:T21"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A115:I115"/>
+    <mergeCell ref="A116:I116"/>
+    <mergeCell ref="A117:I117"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="C118:C120"/>
+    <mergeCell ref="D118:D120"/>
+    <mergeCell ref="E118:E120"/>
+    <mergeCell ref="F118:F120"/>
+    <mergeCell ref="G118:G120"/>
+    <mergeCell ref="H118:H120"/>
+    <mergeCell ref="I118:I120"/>
+    <mergeCell ref="D121:G121"/>
+    <mergeCell ref="A56:R56"/>
+    <mergeCell ref="A57:R57"/>
+    <mergeCell ref="A58:R58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="O59:R59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="N60:N61"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="R60:R61"/>
+    <mergeCell ref="A67:W67"/>
+    <mergeCell ref="A68:W68"/>
     <mergeCell ref="A69:W69"/>
     <mergeCell ref="A70:A71"/>
     <mergeCell ref="B70:B71"/>
@@ -7423,210 +7678,6 @@
     <mergeCell ref="T71:U71"/>
     <mergeCell ref="V71:V72"/>
     <mergeCell ref="W71:W72"/>
-    <mergeCell ref="D121:G121"/>
-    <mergeCell ref="A56:R56"/>
-    <mergeCell ref="A57:R57"/>
-    <mergeCell ref="A58:R58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="O59:R59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="N60:N61"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="R60:R61"/>
-    <mergeCell ref="A67:W67"/>
-    <mergeCell ref="A68:W68"/>
-    <mergeCell ref="A115:I115"/>
-    <mergeCell ref="A116:I116"/>
-    <mergeCell ref="A117:I117"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="C118:C120"/>
-    <mergeCell ref="D118:D120"/>
-    <mergeCell ref="E118:E120"/>
-    <mergeCell ref="F118:F120"/>
-    <mergeCell ref="G118:G120"/>
-    <mergeCell ref="H118:H120"/>
-    <mergeCell ref="I118:I120"/>
-    <mergeCell ref="A21:N21"/>
-    <mergeCell ref="O21:T21"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="A15:U15"/>
-    <mergeCell ref="A16:U16"/>
-    <mergeCell ref="A17:U17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A27:R27"/>
-    <mergeCell ref="A28:R28"/>
-    <mergeCell ref="A29:R29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="J30:J32"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="L30:L32"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:O32"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:R32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="D33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="K35:K37"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="A43:V43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="Q44:Q46"/>
-    <mergeCell ref="R44:R46"/>
-    <mergeCell ref="S44:S46"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:V46"/>
-    <mergeCell ref="A41:V41"/>
-    <mergeCell ref="A42:V42"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="J47:S47"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="Q50:Q52"/>
-    <mergeCell ref="R50:R52"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="T45:T46"/>
-    <mergeCell ref="U45:U46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="K44:K46"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="A79:Y79"/>
-    <mergeCell ref="A80:Y80"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="I81:I83"/>
-    <mergeCell ref="J81:J83"/>
-    <mergeCell ref="K81:K83"/>
-    <mergeCell ref="L81:L83"/>
-    <mergeCell ref="M81:M83"/>
-    <mergeCell ref="O81:O83"/>
-    <mergeCell ref="P81:P83"/>
-    <mergeCell ref="Q81:Q83"/>
-    <mergeCell ref="R81:V81"/>
-    <mergeCell ref="W81:W83"/>
-    <mergeCell ref="C84:W84"/>
-    <mergeCell ref="X84:Y84"/>
-    <mergeCell ref="A90:N90"/>
-    <mergeCell ref="A91:N91"/>
-    <mergeCell ref="A92:N92"/>
-    <mergeCell ref="X81:X83"/>
-    <mergeCell ref="Y81:Y83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="N82:N83"/>
-    <mergeCell ref="R82:R83"/>
-    <mergeCell ref="S82:S83"/>
-    <mergeCell ref="T82:T83"/>
-    <mergeCell ref="U82:U83"/>
-    <mergeCell ref="V82:V83"/>
-    <mergeCell ref="K93:M93"/>
-    <mergeCell ref="N93:N95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:H95"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="K94:K95"/>
-    <mergeCell ref="L94:M94"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="D93:G93"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="D105:H105"/>
-    <mergeCell ref="J105:J107"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="H96:M96"/>
-    <mergeCell ref="A102:O102"/>
-    <mergeCell ref="A103:O103"/>
-    <mergeCell ref="A104:O104"/>
-    <mergeCell ref="D108:L108"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="K105:K107"/>
-    <mergeCell ref="L105:L107"/>
-    <mergeCell ref="M105:N106"/>
-    <mergeCell ref="O105:O107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="H106:H107"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
